--- a/Recycling/Met_rec_comp/metrec_Avg_b3.xlsx
+++ b/Recycling/Met_rec_comp/metrec_Avg_b3.xlsx
@@ -618,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.360113053772892E-06</v>
+        <v>-1.360113053772892E-06</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -649,16 +649,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.0005137382200008634</v>
+        <v>-0.0005137382200008634</v>
       </c>
       <c r="C4">
-        <v>3.951897657405341E-06</v>
+        <v>-3.951897657405341E-06</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>8161.000450903406</v>
+        <v>-8161.000450903406</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4540.805728606874</v>
+        <v>-4540.805728606874</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>460084.7893662791</v>
+        <v>-460084.7893662791</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -744,16 +744,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>8211344.733864886</v>
+        <v>-8211344.733864886</v>
       </c>
       <c r="C4">
-        <v>1336806.522267249</v>
+        <v>-1336806.522267249</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>327744188.1038886</v>
+        <v>-327744188.1038886</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>142715532.839395</v>
+        <v>-142715532.839395</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -808,7 +808,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>491939.7826316594</v>
+        <v>-491939.7826316594</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -839,16 +839,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>8748664.560069121</v>
+        <v>-8748664.560069121</v>
       </c>
       <c r="C4">
-        <v>1429363.293862751</v>
+        <v>-1429363.293862751</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>331364128.4566542</v>
+        <v>-331364128.4566542</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>142112062.6706753</v>
+        <v>-142112062.6706753</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -903,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.283087577474996E-05</v>
+        <v>-2.283087577474996E-05</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -934,16 +934,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.007218870802955531</v>
+        <v>-0.007218870802955531</v>
       </c>
       <c r="C4">
-        <v>6.633660653463022E-05</v>
+        <v>-6.633660653463022E-05</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>18083.13819547712</v>
+        <v>-18083.13819547712</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -957,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>10061.48862759549</v>
+        <v>-10061.48862759549</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0002855432189383301</v>
+        <v>-0.0002855432189383301</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1029,16 +1029,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.07680683010872882</v>
+        <v>-0.07680683010872882</v>
       </c>
       <c r="C4">
-        <v>0.0008296645450759642</v>
+        <v>-0.0008296645450759642</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>37637.75057429998</v>
+        <v>-37637.75057429998</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>20941.45314636225</v>
+        <v>-20941.45314636225</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.002800041351707445</v>
+        <v>-0.002800041351707445</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1124,16 +1124,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.6524308660637548</v>
+        <v>-0.6524308660637548</v>
       </c>
       <c r="C4">
-        <v>0.00813570374003514</v>
+        <v>-0.00813570374003514</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>74833.51426342243</v>
+        <v>-74833.51426342243</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>41634.92172000265</v>
+        <v>-41634.92172000265</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1188,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.02239950688007882</v>
+        <v>-0.02239950688007882</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1219,16 +1219,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>4.601168133323589</v>
+        <v>-4.601168133323589</v>
       </c>
       <c r="C4">
-        <v>0.06508323592723873</v>
+        <v>-0.06508323592723873</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>143786.4232588847</v>
+        <v>-143786.4232588847</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1242,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>79984.20364475778</v>
+        <v>-79984.20364475778</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1283,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1508320716697846</v>
+        <v>-0.1508320716697846</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1314,16 +1314,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>27.75355909886277</v>
+        <v>-27.75355909886277</v>
       </c>
       <c r="C4">
-        <v>0.4382524739689371</v>
+        <v>-0.4382524739689371</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>268545.9964121502</v>
+        <v>-268545.9964121502</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1337,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>149304.8210537765</v>
+        <v>-149304.8210537765</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.8765671328736115</v>
+        <v>-0.8765671328736115</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1409,16 +1409,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>146.5331375587964</v>
+        <v>-146.5331375587964</v>
       </c>
       <c r="C4">
-        <v>2.546923279173356</v>
+        <v>-2.546923279173356</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>487347.5374877143</v>
+        <v>-487347.5374877143</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>270553.1876132968</v>
+        <v>-270553.1876132968</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1473,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.486143251498449</v>
+        <v>-4.486143251498449</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1504,16 +1504,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>689.7391914833654</v>
+        <v>-689.7391914833654</v>
       </c>
       <c r="C4">
-        <v>13.03478336392895</v>
+        <v>-13.03478336392895</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>857254.8556463283</v>
+        <v>-857254.8556463283</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1527,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>474109.8656342341</v>
+        <v>-474109.8656342341</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1568,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>20.55388540989553</v>
+        <v>-20.55388540989553</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1599,16 +1599,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>2937.364626135052</v>
+        <v>-2937.364626135052</v>
       </c>
       <c r="C4">
-        <v>59.72066173221729</v>
+        <v>-59.72066173221729</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1461801.582023445</v>
+        <v>-1461801.582023445</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1622,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>801111.1297803776</v>
+        <v>-801111.1297803776</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>85.44420867881759</v>
+        <v>-85.44420867881759</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1694,16 +1694,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>11451.60759467518</v>
+        <v>-11451.60759467518</v>
       </c>
       <c r="C4">
-        <v>248.2637507080753</v>
+        <v>-248.2637507080753</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2430107.866897102</v>
+        <v>-2430107.866897102</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1717,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1304329.120338515</v>
+        <v>-1304329.120338515</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1853,7 +1853,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>325.7840417983282</v>
+        <v>-325.7840417983282</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1884,16 +1884,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>41234.71448379289</v>
+        <v>-41234.71448379289</v>
       </c>
       <c r="C4">
-        <v>946.5868943993194</v>
+        <v>-946.5868943993194</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>3991350.613937424</v>
+        <v>-3991350.613937424</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1907,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2048471.807399554</v>
+        <v>-2048471.807399554</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1948,7 +1948,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1148.293225482376</v>
+        <v>-1148.293225482376</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1979,16 +1979,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>137794.1090364006</v>
+        <v>-137794.1090364006</v>
       </c>
       <c r="C4">
-        <v>3336.441257739707</v>
+        <v>-3336.441257739707</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>6625337.711798351</v>
+        <v>-6625337.711798351</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3109684.609590979</v>
+        <v>-3109684.609590979</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2043,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3753.415492609053</v>
+        <v>-3753.415492609053</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2074,16 +2074,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>425943.6799543012</v>
+        <v>-425943.6799543012</v>
       </c>
       <c r="C4">
-        <v>10905.79481710306</v>
+        <v>-10905.79481710306</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>11429385.90938015</v>
+        <v>-11429385.90938015</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2097,7 +2097,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4574005.445939127</v>
+        <v>-4574005.445939127</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2138,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>11301.38666961107</v>
+        <v>-11301.38666961107</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2169,16 +2169,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1192043.09247451</v>
+        <v>-1192043.09247451</v>
       </c>
       <c r="C4">
-        <v>32836.91997601065</v>
+        <v>-32836.91997601065</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>20743302.54629443</v>
+        <v>-20743302.54629443</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2192,7 +2192,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6534453.08682149</v>
+        <v>-6534453.08682149</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2233,7 +2233,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>30456.51592921401</v>
+        <v>-30456.51592921401</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2264,16 +2264,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>2844249.330079089</v>
+        <v>-2844249.330079089</v>
       </c>
       <c r="C4">
-        <v>88493.40400014041</v>
+        <v>-88493.40400014041</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>37887279.27537362</v>
+        <v>-37887279.27537362</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>9086267.218899488</v>
+        <v>-9086267.218899488</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2328,7 +2328,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>68309.85416741318</v>
+        <v>-68309.85416741318</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2359,16 +2359,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>5155045.831377317</v>
+        <v>-5155045.831377317</v>
       </c>
       <c r="C4">
-        <v>198478.7602126614</v>
+        <v>-198478.7602126614</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>61530163.06617802</v>
+        <v>-61530163.06617802</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2382,7 +2382,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>12319858.86369421</v>
+        <v>-12319858.86369421</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2423,7 +2423,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>110890.3954010722</v>
+        <v>-110890.3954010722</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2454,16 +2454,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>6534492.942583445</v>
+        <v>-6534492.942583445</v>
       </c>
       <c r="C4">
-        <v>322199.3146809569</v>
+        <v>-322199.3146809569</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>79832814.45921281</v>
+        <v>-79832814.45921281</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2477,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>16311590.68750189</v>
+        <v>-16311590.68750189</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2518,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>109281.69638448</v>
+        <v>-109281.69638448</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2549,16 +2549,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>6866936.986957364</v>
+        <v>-6866936.986957364</v>
       </c>
       <c r="C4">
-        <v>317525.1342093367</v>
+        <v>-317525.1342093367</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>90857625.99066542</v>
+        <v>-90857625.99066542</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>21113545.04733685</v>
+        <v>-21113545.04733685</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2613,7 +2613,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>66611.94068047327</v>
+        <v>-66611.94068047327</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2644,16 +2644,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>7409032.338781988</v>
+        <v>-7409032.338781988</v>
       </c>
       <c r="C4">
-        <v>193545.3612478463</v>
+        <v>-193545.3612478463</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>103909074.4403413</v>
+        <v>-103909074.4403413</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2667,7 +2667,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>26742561.1371708</v>
+        <v>-26742561.1371708</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2708,7 +2708,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>58978.91588933424</v>
+        <v>-58978.91588933424</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2739,16 +2739,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>8121493.373972416</v>
+        <v>-8121493.373972416</v>
       </c>
       <c r="C4">
-        <v>171367.1072362823</v>
+        <v>-171367.1072362823</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>120491111.333211</v>
+        <v>-120491111.333211</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2762,7 +2762,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>33170033.65333406</v>
+        <v>-33170033.65333406</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.06422198974848439</v>
+        <v>-0.06422198974848439</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.03573332905169969</v>
+        <v>-0.03573332905169969</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2898,7 +2898,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>100479.3774875528</v>
+        <v>-100479.3774875528</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2929,16 +2929,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>8916538.275244284</v>
+        <v>-8916538.275244284</v>
       </c>
       <c r="C4">
-        <v>291949.4195053221</v>
+        <v>-291949.4195053221</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>140161651.2015423</v>
+        <v>-140161651.2015423</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>40317546.65285368</v>
+        <v>-40317546.65285368</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2993,7 +2993,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>150131.5318983003</v>
+        <v>-150131.5318983003</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3024,16 +3024,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>9683961.369118063</v>
+        <v>-9683961.369118063</v>
       </c>
       <c r="C4">
-        <v>436217.0097300136</v>
+        <v>-436217.0097300136</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>160898736.511447</v>
+        <v>-160898736.511447</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3047,7 +3047,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>48061142.84191386</v>
+        <v>-48061142.84191386</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3088,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>212536.5052175483</v>
+        <v>-212536.5052175483</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3119,16 +3119,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>10304785.37571505</v>
+        <v>-10304785.37571505</v>
       </c>
       <c r="C4">
-        <v>617538.7514680783</v>
+        <v>-617538.7514680783</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>181665470.8205312</v>
+        <v>-181665470.8205312</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3142,7 +3142,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>56246455.70421774</v>
+        <v>-56246455.70421774</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3183,7 +3183,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>286403.6116756426</v>
+        <v>-286403.6116756426</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3214,16 +3214,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>10967052.93015383</v>
+        <v>-10967052.93015383</v>
       </c>
       <c r="C4">
-        <v>832164.4725883147</v>
+        <v>-832164.4725883147</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>203528634.2168103</v>
+        <v>-203528634.2168103</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>64718584.70963522</v>
+        <v>-64718584.70963522</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3278,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>329542.157738492</v>
+        <v>-329542.157738492</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3309,16 +3309,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>10804616.93115403</v>
+        <v>-10804616.93115403</v>
       </c>
       <c r="C4">
-        <v>957506.346674991</v>
+        <v>-957506.346674991</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>218933726.8916724</v>
+        <v>-218933726.8916724</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3332,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>73370304.85971496</v>
+        <v>-73370304.85971496</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3373,7 +3373,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>384415.4991786091</v>
+        <v>-384415.4991786091</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3404,16 +3404,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>10504185.80240305</v>
+        <v>-10504185.80240305</v>
       </c>
       <c r="C4">
-        <v>1116944.438155445</v>
+        <v>-1116944.438155445</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>233950453.1316479</v>
+        <v>-233950453.1316479</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3427,7 +3427,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>82209832.41724394</v>
+        <v>-82209832.41724394</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3468,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>591947.1649368198</v>
+        <v>-591947.1649368198</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3499,16 +3499,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>10502246.63020688</v>
+        <v>-10502246.63020688</v>
       </c>
       <c r="C4">
-        <v>1719941.30041793</v>
+        <v>-1719941.30041793</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>255560285.057339</v>
+        <v>-255560285.057339</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3522,7 +3522,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>91445044.90460898</v>
+        <v>-91445044.90460898</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3563,7 +3563,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>925842.1257489437</v>
+        <v>-925842.1257489437</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3594,16 +3594,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>10301580.64978709</v>
+        <v>-10301580.64978709</v>
       </c>
       <c r="C4">
-        <v>2690095.001827233</v>
+        <v>-2690095.001827233</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>280382763.1649476</v>
+        <v>-280382763.1649476</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3617,7 +3617,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>101574418.5227425</v>
+        <v>-101574418.5227425</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3658,7 +3658,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1264240.514632979</v>
+        <v>-1264240.514632979</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3689,16 +3689,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>10290047.61356012</v>
+        <v>-10290047.61356012</v>
       </c>
       <c r="C4">
-        <v>3673333.708779501</v>
+        <v>-3673333.708779501</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>309867862.1659169</v>
+        <v>-309867862.1659169</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3712,7 +3712,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>113467113.7621771</v>
+        <v>-113467113.7621771</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3753,7 +3753,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1578142.20455715</v>
+        <v>-1578142.20455715</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3784,16 +3784,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>10077127.26950401</v>
+        <v>-10077127.26950401</v>
       </c>
       <c r="C4">
-        <v>4585395.65070837</v>
+        <v>-4585395.65070837</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>342762435.7805011</v>
+        <v>-342762435.7805011</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3807,7 +3807,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>128407144.5466416</v>
+        <v>-128407144.5466416</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3888,7 +3888,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2.701714670621426</v>
+        <v>-2.701714670621426</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3902,7 +3902,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1.503243043499725</v>
+        <v>-1.503243043499725</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1515625.261834214</v>
+        <v>-1515625.261834214</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3974,16 +3974,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>9613890.307625534</v>
+        <v>-9613890.307625534</v>
       </c>
       <c r="C4">
-        <v>4403748.574526301</v>
+        <v>-4403748.574526301</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>373201850.3668593</v>
+        <v>-373201850.3668593</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>148072798.2043695</v>
+        <v>-148072798.2043695</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4038,7 +4038,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1365982.446864602</v>
+        <v>-1365982.446864602</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4069,16 +4069,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>8954933.985220721</v>
+        <v>-8954933.985220721</v>
       </c>
       <c r="C4">
-        <v>3968951.5638767</v>
+        <v>-3968951.5638767</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>412130944.2035097</v>
+        <v>-412130944.2035097</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4092,7 +4092,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>174433267.6511292</v>
+        <v>-174433267.6511292</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4133,7 +4133,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1335828.476183544</v>
+        <v>-1335828.476183544</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4164,16 +4164,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>8204329.447023776</v>
+        <v>-8204329.447023776</v>
       </c>
       <c r="C4">
-        <v>3881337.224932314</v>
+        <v>-3881337.224932314</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>469040656.2281205</v>
+        <v>-469040656.2281205</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4187,7 +4187,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>209561374.2383166</v>
+        <v>-209561374.2383166</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4228,7 +4228,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1202133.249640091</v>
+        <v>-1202133.249640091</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4259,16 +4259,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>8473906.694257149</v>
+        <v>-8473906.694257149</v>
       </c>
       <c r="C4">
-        <v>3492876.978103765</v>
+        <v>-3492876.978103765</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>550123283.082104</v>
+        <v>-550123283.082104</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4282,7 +4282,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>255379624.0931959</v>
+        <v>-255379624.0931959</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4323,7 +4323,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1037409.677536013</v>
+        <v>-1037409.677536013</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4354,16 +4354,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>10216018.55503814</v>
+        <v>-10216018.55503814</v>
       </c>
       <c r="C4">
-        <v>3014261.838787381</v>
+        <v>-3014261.838787381</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>663115544.2931087</v>
+        <v>-663115544.2931087</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4377,7 +4377,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>313373325.5882719</v>
+        <v>-313373325.5882719</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4418,7 +4418,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>901725.8173138074</v>
+        <v>-901725.8173138074</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4449,16 +4449,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>14466949.33972225</v>
+        <v>-14466949.33972225</v>
       </c>
       <c r="C4">
-        <v>2620023.486414813</v>
+        <v>-2620023.486414813</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>818438927.4799929</v>
+        <v>-818438927.4799929</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4472,7 +4472,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>384311081.7650227</v>
+        <v>-384311081.7650227</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4513,7 +4513,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1136131.348477681</v>
+        <v>-1136131.348477681</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4544,16 +4544,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>22270801.79262665</v>
+        <v>-22270801.79262665</v>
       </c>
       <c r="C4">
-        <v>3301104.126674622</v>
+        <v>-3301104.126674622</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1031663650.447345</v>
+        <v>-1031663650.447345</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4567,7 +4567,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>468008225.344897</v>
+        <v>-468008225.344897</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4608,7 +4608,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1754040.762815443</v>
+        <v>-1754040.762815443</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4639,16 +4639,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>32934182.50889124</v>
+        <v>-32934182.50889124</v>
       </c>
       <c r="C4">
-        <v>5096480.445015473</v>
+        <v>-5096480.445015473</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1295686653.505649</v>
+        <v>-1295686653.505649</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4662,7 +4662,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>563155855.7680885</v>
+        <v>-563155855.7680885</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4703,7 +4703,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2436983.711048678</v>
+        <v>-2436983.711048678</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4734,16 +4734,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>44663313.77758443</v>
+        <v>-44663313.77758443</v>
       </c>
       <c r="C4">
-        <v>7080815.960197637</v>
+        <v>-7080815.960197637</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1585123691.905294</v>
+        <v>-1585123691.905294</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>667227074.5405416</v>
+        <v>-667227074.5405416</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4798,7 +4798,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3430260.990319107</v>
+        <v>-3430260.990319107</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4829,16 +4829,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>62094659.59905225</v>
+        <v>-62094659.59905225</v>
       </c>
       <c r="C4">
-        <v>9966848.222158559</v>
+        <v>-9966848.222158559</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1933113610.758909</v>
+        <v>-1933113610.758909</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4852,7 +4852,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>776471840.8986139</v>
+        <v>-776471840.8986139</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4933,7 +4933,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>23.89398766937426</v>
+        <v>-23.89398766937426</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4947,7 +4947,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>13.29469434209106</v>
+        <v>-13.29469434209106</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4988,7 +4988,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4734503.13538875</v>
+        <v>-4734503.13538875</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5019,16 +5019,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>85269832.99266399</v>
+        <v>-85269832.99266399</v>
       </c>
       <c r="C4">
-        <v>13756409.29099209</v>
+        <v>-13756409.29099209</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2331226004.071978</v>
+        <v>-2331226004.071978</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5042,7 +5042,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>886021472.6604462</v>
+        <v>-886021472.6604462</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5083,7 +5083,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5398905.945735626</v>
+        <v>-5398905.945735626</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5114,16 +5114,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>97175174.14255635</v>
+        <v>-97175174.14255635</v>
       </c>
       <c r="C4">
-        <v>15686875.21990874</v>
+        <v>-15686875.21990874</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2621574307.6597</v>
+        <v>-2621574307.6597</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5137,7 +5137,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>990131888.4388481</v>
+        <v>-990131888.4388481</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5178,7 +5178,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5444759.491827768</v>
+        <v>-5444759.491827768</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5209,16 +5209,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>97748216.57609399</v>
+        <v>-97748216.57609399</v>
       </c>
       <c r="C4">
-        <v>15820105.7045972</v>
+        <v>-15820105.7045972</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2793044836.475633</v>
+        <v>-2793044836.475633</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5232,7 +5232,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1082586926.2517</v>
+        <v>-1082586926.2517</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5273,7 +5273,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5400181.343710912</v>
+        <v>-5400181.343710912</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5304,16 +5304,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>96494528.34810975</v>
+        <v>-96494528.34810975</v>
       </c>
       <c r="C4">
-        <v>15690580.97235102</v>
+        <v>-15690580.97235102</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2916982047.4765</v>
+        <v>-2916982047.4765</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5327,7 +5327,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1157252659.627084</v>
+        <v>-1157252659.627084</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5368,7 +5368,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5261643.558754049</v>
+        <v>-5261643.558754049</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5399,16 +5399,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>93657871.88172232</v>
+        <v>-93657871.88172232</v>
       </c>
       <c r="C4">
-        <v>15288050.35453623</v>
+        <v>-15288050.35453623</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2985376161.999331</v>
+        <v>-2985376161.999331</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5422,7 +5422,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1208727174.030206</v>
+        <v>-1208727174.030206</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5463,7 +5463,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5049676.292881894</v>
+        <v>-5049676.292881894</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5494,16 +5494,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>89555541.22251882</v>
+        <v>-89555541.22251882</v>
       </c>
       <c r="C4">
-        <v>14672165.56530998</v>
+        <v>-14672165.56530998</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2993812956.951092</v>
+        <v>-2993812956.951092</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5517,7 +5517,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1232985477.033704</v>
+        <v>-1232985477.033704</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5558,7 +5558,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4888295.266242712</v>
+        <v>-4888295.266242712</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5589,16 +5589,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>86282366.52040811</v>
+        <v>-86282366.52040811</v>
       </c>
       <c r="C4">
-        <v>14203262.41100533</v>
+        <v>-14203262.41100533</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2956799886.858154</v>
+        <v>-2956799886.858154</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5612,7 +5612,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1227896726.760468</v>
+        <v>-1227896726.760468</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5653,7 +5653,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4698736.696441416</v>
+        <v>-4698736.696441416</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5684,16 +5684,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>82272862.68261912</v>
+        <v>-82272862.68261912</v>
       </c>
       <c r="C4">
-        <v>13652487.55750264</v>
+        <v>-13652487.55750264</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2861049668.1251</v>
+        <v>-2861049668.1251</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5707,7 +5707,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1193505012.088393</v>
+        <v>-1193505012.088393</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5748,7 +5748,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4222601.913301527</v>
+        <v>-4222601.913301527</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5779,16 +5779,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>72698065.69378798</v>
+        <v>-72698065.69378798</v>
       </c>
       <c r="C4">
-        <v>12269046.72596283</v>
+        <v>-12269046.72596283</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2668922237.927979</v>
+        <v>-2668922237.927979</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5802,7 +5802,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1132016379.955482</v>
+        <v>-1132016379.955482</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5843,7 +5843,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3180603.289040706</v>
+        <v>-3180603.289040706</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5874,16 +5874,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>52653557.153428</v>
+        <v>-52653557.153428</v>
       </c>
       <c r="C4">
-        <v>9241451.40157922</v>
+        <v>-9241451.40157922</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2345082491.59833</v>
+        <v>-2345082491.59833</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5897,7 +5897,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1047508147.788978</v>
+        <v>-1047508147.788978</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5978,7 +5978,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>115.1951921709256</v>
+        <v>-115.1951921709256</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5992,7 +5992,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>64.09498869683662</v>
+        <v>-64.09498869683662</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6033,7 +6033,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1720606.661518854</v>
+        <v>-1720606.661518854</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -6064,16 +6064,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>25641716.5553471</v>
+        <v>-25641716.5553471</v>
       </c>
       <c r="C4">
-        <v>4999335.471496599</v>
+        <v>-4999335.471496599</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1928565425.340566</v>
+        <v>-1928565425.340566</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6087,7 +6087,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>945442692.1233479</v>
+        <v>-945442692.1233479</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6128,7 +6128,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>908941.7691695434</v>
+        <v>-908941.7691695434</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -6159,16 +6159,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>11601270.57145249</v>
+        <v>-11601270.57145249</v>
       </c>
       <c r="C4">
-        <v>2640989.907665994</v>
+        <v>-2640989.907665994</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1602427187.812468</v>
+        <v>-1602427187.812468</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6182,7 +6182,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>832098747.1919512</v>
+        <v>-832098747.1919512</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6223,7 +6223,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>710938.2621285897</v>
+        <v>-710938.2621285897</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -6254,16 +6254,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>9921459.362842131</v>
+        <v>-9921459.362842131</v>
       </c>
       <c r="C4">
-        <v>2065677.735297237</v>
+        <v>-2065677.735297237</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1373110543.871955</v>
+        <v>-1373110543.871955</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6277,7 +6277,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>714015745.9975913</v>
+        <v>-714015745.9975913</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6318,7 +6318,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>495036.2217540582</v>
+        <v>-495036.2217540582</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -6349,16 +6349,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>8562745.045593303</v>
+        <v>-8562745.045593303</v>
       </c>
       <c r="C4">
-        <v>1438360.20075969</v>
+        <v>-1438360.20075969</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1148517792.728537</v>
+        <v>-1148517792.728537</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6372,7 +6372,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>597494565.0458823</v>
+        <v>-597494565.0458823</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6413,7 +6413,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>277212.174007858</v>
+        <v>-277212.174007858</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -6444,16 +6444,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>5989395.115446739</v>
+        <v>-5989395.115446739</v>
       </c>
       <c r="C4">
-        <v>805458.1477818984</v>
+        <v>-805458.1477818984</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>927884066.2344738</v>
+        <v>-927884066.2344738</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6467,7 +6467,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>488149015.8837779</v>
+        <v>-488149015.8837779</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6508,7 +6508,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>99957.57096879842</v>
+        <v>-99957.57096879842</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -6539,16 +6539,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>2922133.629694389</v>
+        <v>-2922133.629694389</v>
       </c>
       <c r="C4">
-        <v>290433.2764513575</v>
+        <v>-290433.2764513575</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>725628690.782783</v>
+        <v>-725628690.782783</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6562,7 +6562,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>390494156.2494746</v>
+        <v>-390494156.2494746</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6603,7 +6603,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>34501.64839778595</v>
+        <v>-34501.64839778595</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -6634,16 +6634,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>2266541.017983624</v>
+        <v>-2266541.017983624</v>
       </c>
       <c r="C4">
-        <v>100246.8016181542</v>
+        <v>-100246.8016181542</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>570256847.4675443</v>
+        <v>-570256847.4675443</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6657,7 +6657,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>307596827.6835134</v>
+        <v>-307596827.6835134</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6698,7 +6698,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>80889.31558939279</v>
+        <v>-80889.31558939279</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -6729,16 +6729,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>4054983.476406642</v>
+        <v>-4054983.476406642</v>
       </c>
       <c r="C4">
-        <v>235029.2101822733</v>
+        <v>-235029.2101822733</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>464538770.908535</v>
+        <v>-464538770.908535</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6752,7 +6752,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>240865973.0845754</v>
+        <v>-240865973.0845754</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6793,7 +6793,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>205383.3889080692</v>
+        <v>-205383.3889080692</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -6824,16 +6824,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>6642209.059520948</v>
+        <v>-6642209.059520948</v>
       </c>
       <c r="C4">
-        <v>596754.9030165373</v>
+        <v>-596754.9030165373</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>395204002.9777587</v>
+        <v>-395204002.9777587</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6847,7 +6847,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>190073185.4943731</v>
+        <v>-190073185.4943731</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6888,7 +6888,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>421851.7380718726</v>
+        <v>-421851.7380718726</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -6919,16 +6919,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>9529227.472590409</v>
+        <v>-9529227.472590409</v>
       </c>
       <c r="C4">
-        <v>1225717.884872955</v>
+        <v>-1225717.884872955</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>356099402.5695304</v>
+        <v>-356099402.5695304</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6942,7 +6942,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>153640235.9309696</v>
+        <v>-153640235.9309696</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6983,7 +6983,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.942850502833102E-11</v>
+        <v>-1.942850502833102E-11</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7014,16 +7014,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1.358846133085101E-08</v>
+        <v>-1.358846133085101E-08</v>
       </c>
       <c r="C4">
-        <v>5.645079524482648E-11</v>
+        <v>-5.645079524482648E-11</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>414.3679286730751</v>
+        <v>-414.3679286730751</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7037,7 +7037,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>230.5556959253918</v>
+        <v>-230.5556959253918</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7078,7 +7078,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>660854.8438820282</v>
+        <v>-660854.8438820282</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7109,16 +7109,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>12226371.54908247</v>
+        <v>-12226371.54908247</v>
       </c>
       <c r="C4">
-        <v>1920157.079720552</v>
+        <v>-1920157.079720552</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>337583469.5591965</v>
+        <v>-337583469.5591965</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7132,7 +7132,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>129132548.4412253</v>
+        <v>-129132548.4412253</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7173,7 +7173,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>836264.3655045592</v>
+        <v>-836264.3655045592</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7204,16 +7204,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>14658434.45573505</v>
+        <v>-14658434.45573505</v>
       </c>
       <c r="C4">
-        <v>2429820.946017376</v>
+        <v>-2429820.946017376</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>332104348.9275478</v>
+        <v>-332104348.9275478</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7227,7 +7227,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>113815115.5606263</v>
+        <v>-113815115.5606263</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7268,7 +7268,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>935255.4112996848</v>
+        <v>-935255.4112996848</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7299,16 +7299,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>16467800.80100003</v>
+        <v>-16467800.80100003</v>
       </c>
       <c r="C4">
-        <v>2717445.920203663</v>
+        <v>-2717445.920203663</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>332106787.8604285</v>
+        <v>-332106787.8604285</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7322,7 +7322,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>105113464.9396431</v>
+        <v>-105113464.9396431</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7363,7 +7363,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>854533.4330086812</v>
+        <v>-854533.4330086812</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7394,16 +7394,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>15137810.488119</v>
+        <v>-15137810.488119</v>
       </c>
       <c r="C4">
-        <v>2482902.919513804</v>
+        <v>-2482902.919513804</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>312816625.1910507</v>
+        <v>-312816625.1910507</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7417,7 +7417,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>100884804.8453383</v>
+        <v>-100884804.8453383</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7458,7 +7458,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>519073.2410106177</v>
+        <v>-519073.2410106177</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7489,16 +7489,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>9193886.797260422</v>
+        <v>-9193886.797260422</v>
       </c>
       <c r="C4">
-        <v>1508201.336264935</v>
+        <v>-1508201.336264935</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>258694896.1166914</v>
+        <v>-258694896.1166914</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7512,7 +7512,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>99499756.16143928</v>
+        <v>-99499756.16143928</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7553,7 +7553,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>171190.2457926646</v>
+        <v>-171190.2457926646</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7584,16 +7584,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>2974885.686326288</v>
+        <v>-2974885.686326288</v>
       </c>
       <c r="C4">
-        <v>497404.4837243654</v>
+        <v>-497404.4837243654</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>205291967.1623028</v>
+        <v>-205291967.1623028</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7607,7 +7607,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>99802370.35839778</v>
+        <v>-99802370.35839778</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7648,7 +7648,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>24953.65264519699</v>
+        <v>-24953.65264519699</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7679,16 +7679,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>396734.4865943867</v>
+        <v>-396734.4865943867</v>
       </c>
       <c r="C4">
-        <v>72504.4739175975</v>
+        <v>-72504.4739175975</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>185075502.7802565</v>
+        <v>-185075502.7802565</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7702,7 +7702,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>101024574.3808131</v>
+        <v>-101024574.3808131</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7743,7 +7743,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5613.235174542174</v>
+        <v>-5613.235174542174</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7774,16 +7774,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>80182.75855714981</v>
+        <v>-80182.75855714981</v>
       </c>
       <c r="C4">
-        <v>16309.62284730966</v>
+        <v>-16309.62284730966</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>185296811.5950826</v>
+        <v>-185296811.5950826</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7797,7 +7797,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>102697560.4515683</v>
+        <v>-102697560.4515683</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7838,7 +7838,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>13493.40119309175</v>
+        <v>-13493.40119309175</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7869,16 +7869,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>192082.0689178672</v>
+        <v>-192082.0689178672</v>
       </c>
       <c r="C4">
-        <v>39205.9618996302</v>
+        <v>-39205.9618996302</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>189667351.1309118</v>
+        <v>-189667351.1309118</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7892,7 +7892,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>104567419.8342621</v>
+        <v>-104567419.8342621</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7933,7 +7933,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>35917.44143099245</v>
+        <v>-35917.44143099245</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7964,16 +7964,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>513480.5518878217</v>
+        <v>-513480.5518878217</v>
       </c>
       <c r="C4">
-        <v>104360.4811066196</v>
+        <v>-104360.4811066196</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>196056417.862793</v>
+        <v>-196056417.862793</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7987,7 +7987,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>106511177.5757198</v>
+        <v>-106511177.5757198</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8028,7 +8028,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.489210329870007E-09</v>
+        <v>-1.489210329870007E-09</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -8059,16 +8059,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>8.10702718304821E-07</v>
+        <v>-8.10702718304821E-07</v>
       </c>
       <c r="C4">
-        <v>4.326998257734398E-09</v>
+        <v>-4.326998257734398E-09</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1260.304952250225</v>
+        <v>-1260.304952250225</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8082,7 +8082,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>701.2378708177607</v>
+        <v>-701.2378708177607</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8123,7 +8123,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>77670.82386914434</v>
+        <v>-77670.82386914434</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -8154,16 +8154,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1120295.851569187</v>
+        <v>-1120295.851569187</v>
       </c>
       <c r="C4">
-        <v>225677.6714595576</v>
+        <v>-225677.6714595576</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>205008640.7505496</v>
+        <v>-205008640.7505496</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8177,7 +8177,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>108458189.0689611</v>
+        <v>-108458189.0689611</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8218,7 +8218,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>110713.4100394567</v>
+        <v>-110713.4100394567</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -8249,16 +8249,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1644318.443307563</v>
+        <v>-1644318.443307563</v>
       </c>
       <c r="C4">
-        <v>321685.0721082358</v>
+        <v>-321685.0721082358</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>213012274.4682261</v>
+        <v>-213012274.4682261</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8272,7 +8272,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>110331974.2357111</v>
+        <v>-110331974.2357111</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>83999.01886486949</v>
+        <v>-83999.01886486949</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -8344,16 +8344,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1439726.69345734</v>
+        <v>-1439726.69345734</v>
       </c>
       <c r="C4">
-        <v>244064.6569456819</v>
+        <v>-244064.6569456819</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>213913858.9690483</v>
+        <v>-213913858.9690483</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8367,7 +8367,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>112026845.4614852</v>
+        <v>-112026845.4614852</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8408,7 +8408,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>94925.97390499809</v>
+        <v>-94925.97390499809</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -8439,16 +8439,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>2047205.448106371</v>
+        <v>-2047205.448106371</v>
       </c>
       <c r="C4">
-        <v>275813.64127156</v>
+        <v>-275813.64127156</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>221134388.580009</v>
+        <v>-221134388.580009</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8462,7 +8462,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>113423017.8807254</v>
+        <v>-113423017.8807254</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8503,7 +8503,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>214649.3624030848</v>
+        <v>-214649.3624030848</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -8534,16 +8534,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>4693765.23588534</v>
+        <v>-4693765.23588534</v>
       </c>
       <c r="C4">
-        <v>623677.7965561257</v>
+        <v>-623677.7965561257</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>245216416.2027492</v>
+        <v>-245216416.2027492</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8557,7 +8557,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>114430277.1089078</v>
+        <v>-114430277.1089078</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8598,7 +8598,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>381416.9014244512</v>
+        <v>-381416.9014244512</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -8629,16 +8629,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>8298391.375220868</v>
+        <v>-8298391.375220868</v>
       </c>
       <c r="C4">
-        <v>1108231.815769177</v>
+        <v>-1108231.815769177</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>276735493.7468376</v>
+        <v>-276735493.7468376</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8652,7 +8652,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>115039647.0178124</v>
+        <v>-115039647.0178124</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8693,7 +8693,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>471827.5163044629</v>
+        <v>-471827.5163044629</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -8724,16 +8724,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>10036255.53836592</v>
+        <v>-10036255.53836592</v>
       </c>
       <c r="C4">
-        <v>1370925.785331323</v>
+        <v>-1370925.785331323</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>292218852.6796159</v>
+        <v>-292218852.6796159</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8747,7 +8747,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>115358463.4542318</v>
+        <v>-115358463.4542318</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8788,7 +8788,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>502055.50746928</v>
+        <v>-502055.50746928</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -8819,16 +8819,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>10040051.91988035</v>
+        <v>-10040051.91988035</v>
       </c>
       <c r="C4">
-        <v>1458755.195644635</v>
+        <v>-1458755.195644635</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>293428808.0007818</v>
+        <v>-293428808.0007818</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8842,7 +8842,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>115608905.8177007</v>
+        <v>-115608905.8177007</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8883,7 +8883,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>553365.6165269032</v>
+        <v>-553365.6165269032</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -8914,16 +8914,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>10437570.86777566</v>
+        <v>-10437570.86777566</v>
       </c>
       <c r="C4">
-        <v>1607840.08180432</v>
+        <v>-1607840.08180432</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>298433967.6795667</v>
+        <v>-298433967.6795667</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8937,7 +8937,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>116083395.9410974</v>
+        <v>-116083395.9410974</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8978,7 +8978,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>620764.7696434783</v>
+        <v>-620764.7696434783</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9009,16 +9009,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>11527403.16901948</v>
+        <v>-11527403.16901948</v>
       </c>
       <c r="C4">
-        <v>1803672.740401075</v>
+        <v>-1803672.740401075</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>309813731.9964464</v>
+        <v>-309813731.9964464</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9032,7 +9032,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>117068313.4970037</v>
+        <v>-117068313.4970037</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9073,7 +9073,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.646780882565986E-08</v>
+        <v>-5.646780882565986E-08</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9104,16 +9104,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>2.570216839284881E-05</v>
+        <v>-2.570216839284881E-05</v>
       </c>
       <c r="C4">
-        <v>1.640709210149229E-07</v>
+        <v>-1.640709210149229E-07</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>3382.133340547808</v>
+        <v>-3382.133340547808</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9127,7 +9127,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1881.830152822812</v>
+        <v>-1881.830152822812</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9168,7 +9168,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>681894.8430824743</v>
+        <v>-681894.8430824743</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9199,16 +9199,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>12502055.48132154</v>
+        <v>-12502055.48132154</v>
       </c>
       <c r="C4">
-        <v>1981290.176944643</v>
+        <v>-1981290.176944643</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>321472788.7838541</v>
+        <v>-321472788.7838541</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9222,7 +9222,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>118762205.8814116</v>
+        <v>-118762205.8814116</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>736351.4706049393</v>
+        <v>-736351.4706049393</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9294,16 +9294,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>12979673.58742519</v>
+        <v>-12979673.58742519</v>
       </c>
       <c r="C4">
-        <v>2139517.478814329</v>
+        <v>-2139517.478814329</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>330701694.0419376</v>
+        <v>-330701694.0419376</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9317,7 +9317,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>121218178.5171346</v>
+        <v>-121218178.5171346</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9358,7 +9358,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>770737.152680782</v>
+        <v>-770737.152680782</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9389,16 +9389,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>13007918.08832477</v>
+        <v>-13007918.08832477</v>
       </c>
       <c r="C4">
-        <v>2239427.332680417</v>
+        <v>-2239427.332680417</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>337333680.7101647</v>
+        <v>-337333680.7101647</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9412,7 +9412,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>124329861.4253198</v>
+        <v>-124329861.4253198</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9453,7 +9453,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>750398.0803837889</v>
+        <v>-750398.0803837889</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9484,16 +9484,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>12506755.70642531</v>
+        <v>-12506755.70642531</v>
       </c>
       <c r="C4">
-        <v>2180330.824532568</v>
+        <v>-2180330.824532568</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>339520417.4849615</v>
+        <v>-339520417.4849615</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9507,7 +9507,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>127861749.680666</v>
+        <v>-127861749.680666</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9548,7 +9548,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>663727.0665328222</v>
+        <v>-663727.0665328222</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9579,16 +9579,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>11337991.18206346</v>
+        <v>-11337991.18206346</v>
       </c>
       <c r="C4">
-        <v>1928502.510957855</v>
+        <v>-1928502.510957855</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>335419611.3797715</v>
+        <v>-335419611.3797715</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9602,7 +9602,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>131508026.9996446</v>
+        <v>-131508026.9996446</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9643,7 +9643,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>528022.2503119173</v>
+        <v>-528022.2503119173</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9674,16 +9674,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>9332279.105285868</v>
+        <v>-9332279.105285868</v>
       </c>
       <c r="C4">
-        <v>1534203.269557026</v>
+        <v>-1534203.269557026</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>323650735.1071142</v>
+        <v>-323650735.1071142</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9697,7 +9697,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>134957175.8463437</v>
+        <v>-134957175.8463437</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>381337.2429419493</v>
+        <v>-381337.2429419493</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9769,16 +9769,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>6861552.467854487</v>
+        <v>-6861552.467854487</v>
       </c>
       <c r="C4">
-        <v>1108000.362825233</v>
+        <v>-1108000.362825233</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>307380834.1417248</v>
+        <v>-307380834.1417248</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9792,7 +9792,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>137943788.8567619</v>
+        <v>-137943788.8567619</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9833,7 +9833,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>283257.9427079593</v>
+        <v>-283257.9427079593</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9864,16 +9864,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>5100109.678121232</v>
+        <v>-5100109.678121232</v>
       </c>
       <c r="C4">
-        <v>823024.525148007</v>
+        <v>-823024.525148007</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>296308780.9530738</v>
+        <v>-296308780.9530738</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9887,7 +9887,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>140278802.4457505</v>
+        <v>-140278802.4457505</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9928,7 +9928,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>294817.5086406968</v>
+        <v>-294817.5086406968</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9959,16 +9959,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>5283478.580287394</v>
+        <v>-5283478.580287394</v>
       </c>
       <c r="C4">
-        <v>856611.6019012867</v>
+        <v>-856611.6019012867</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>300770162.5281537</v>
+        <v>-300770162.5281537</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9982,7 +9982,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>141858548.6662355</v>
+        <v>-141858548.6662355</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -10023,7 +10023,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>385595.3984085541</v>
+        <v>-385595.3984085541</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -10054,16 +10054,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>6897366.080168938</v>
+        <v>-6897366.080168938</v>
       </c>
       <c r="C4">
-        <v>1120372.712731489</v>
+        <v>-1120372.712731489</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>316218969.5359895</v>
+        <v>-316218969.5359895</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -10077,7 +10077,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>142658118.4080635</v>
+        <v>-142658118.4080635</v>
       </c>
       <c r="E5">
         <v>0</v>

--- a/Recycling/Met_rec_comp/metrec_Avg_b3.xlsx
+++ b/Recycling/Met_rec_comp/metrec_Avg_b3.xlsx
@@ -2178,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-20743302.54629443</v>
+        <v>-20743302.54629444</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2273,7 +2273,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-37887279.27537362</v>
+        <v>-37887279.27537361</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2558,7 +2558,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-90857625.99066542</v>
+        <v>-90857625.99066544</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5503,7 +5503,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-2993812956.951092</v>
+        <v>-2993812956.951093</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7308,7 +7308,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-332106787.8604285</v>
+        <v>-332106787.8604286</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7403,7 +7403,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-312816625.1910507</v>
+        <v>-312816625.1910508</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8638,7 +8638,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-276735493.7468376</v>
+        <v>-276735493.7468375</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8828,7 +8828,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-293428808.0007818</v>
+        <v>-293428808.0007819</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9683,7 +9683,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-323650735.1071142</v>
+        <v>-323650735.1071143</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9968,7 +9968,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-300770162.5281537</v>
+        <v>-300770162.5281538</v>
       </c>
     </row>
     <row r="5" spans="1:5">

--- a/Recycling/Met_rec_comp/metrec_Avg_b3.xlsx
+++ b/Recycling/Met_rec_comp/metrec_Avg_b3.xlsx
@@ -122,16 +122,16 @@
     <t>Sector</t>
   </si>
   <si>
-    <t>Nd</t>
+    <t>Neodymium</t>
   </si>
   <si>
-    <t>Dy</t>
+    <t>Dysprosium</t>
   </si>
   <si>
-    <t>Cu</t>
+    <t>Copper ores and concentrates</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Raw silicon</t>
   </si>
   <si>
     <t>Region</t>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-18083.13819547713</v>
+        <v>-18083.13819547712</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-37637.75057429997</v>
+        <v>-37637.75057429998</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1619,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-143786.4232588848</v>
+        <v>-143786.4232588847</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-20743302.54629444</v>
+        <v>-20743302.54629443</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-37887279.27537361</v>
+        <v>-37887279.27537362</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3335,7 +3335,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-61530163.06617801</v>
+        <v>-61530163.06617802</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3621,7 +3621,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-90857625.99066544</v>
+        <v>-90857625.99066542</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4479,7 +4479,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-181665470.8205311</v>
+        <v>-181665470.8205312</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5051,7 +5051,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-255560285.0573389</v>
+        <v>-255560285.057339</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5909,7 +5909,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-412130944.2035098</v>
+        <v>-412130944.2035097</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8340,7 +8340,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2861049668.125099</v>
+        <v>-2861049668.1251</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10056,7 +10056,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-395204002.9777586</v>
+        <v>-395204002.9777587</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10771,7 +10771,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-332106787.8604286</v>
+        <v>-332106787.8604285</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10914,7 +10914,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-312816625.1910508</v>
+        <v>-312816625.1910507</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11629,7 +11629,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-189667351.1309117</v>
+        <v>-189667351.1309118</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12201,7 +12201,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-213012274.4682262</v>
+        <v>-213012274.4682261</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12773,7 +12773,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-276735493.7468375</v>
+        <v>-276735493.7468376</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13059,7 +13059,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-293428808.0007819</v>
+        <v>-293428808.0007818</v>
       </c>
     </row>
     <row r="8" spans="1:7">

--- a/Recycling/Met_rec_comp/metrec_Avg_b3.xlsx
+++ b/Recycling/Met_rec_comp/metrec_Avg_b3.xlsx
@@ -116,10 +116,31 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="13">
   <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
     <t>EU27+UK</t>
   </si>
   <si>
     <t>Sector</t>
+  </si>
+  <si>
+    <t>Refinery of Generators of Onshore Wind Turbines</t>
+  </si>
+  <si>
+    <t>Refinery of Generators of Offshore Wind Turbines</t>
+  </si>
+  <si>
+    <t>Refinery of Silicon layer in PV panel</t>
+  </si>
+  <si>
+    <t>Refinery of Cu in wires of WT and PV</t>
   </si>
   <si>
     <t>Neodymium</t>
@@ -132,27 +153,6 @@
   </si>
   <si>
     <t>Raw silicon</t>
-  </si>
-  <si>
-    <t>Region</t>
-  </si>
-  <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>Item</t>
-  </si>
-  <si>
-    <t>Generator Onshore</t>
-  </si>
-  <si>
-    <t>Generator Offshore</t>
-  </si>
-  <si>
-    <t>Panel</t>
-  </si>
-  <si>
-    <t>Wires</t>
   </si>
 </sst>
 </file>
@@ -517,55 +517,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -660,55 +655,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -803,55 +793,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -946,55 +931,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -1089,55 +1069,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -1190,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-18083.13819547712</v>
+        <v>-18083.13819547713</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1232,55 +1207,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -1333,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-37637.75057429998</v>
+        <v>-37637.75057429997</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1375,55 +1345,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -1518,55 +1483,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -1619,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-143786.4232588847</v>
+        <v>-143786.4232588848</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1661,55 +1621,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -1804,55 +1759,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -1947,55 +1897,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -2090,55 +2035,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -2233,55 +2173,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -2376,55 +2311,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -2519,55 +2449,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -2662,55 +2587,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -2805,55 +2725,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -2948,55 +2863,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -3049,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-20743302.54629443</v>
+        <v>-20743302.54629444</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3091,55 +3001,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -3192,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-37887279.27537362</v>
+        <v>-37887279.27537361</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3234,55 +3139,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -3335,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-61530163.06617802</v>
+        <v>-61530163.06617801</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3377,55 +3277,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -3520,55 +3415,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -3621,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-90857625.99066542</v>
+        <v>-90857625.99066544</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3663,55 +3553,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -3806,55 +3691,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -3949,55 +3829,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -4092,55 +3967,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -4235,55 +4105,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -4378,55 +4243,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -4479,7 +4339,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-181665470.8205312</v>
+        <v>-181665470.8205311</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4521,55 +4381,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -4664,55 +4519,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -4807,55 +4657,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -4950,55 +4795,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -5051,7 +4891,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-255560285.057339</v>
+        <v>-255560285.0573389</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5093,55 +4933,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -5236,55 +5071,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -5379,55 +5209,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -5522,55 +5347,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -5665,55 +5485,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -5808,55 +5623,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -5909,7 +5719,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-412130944.2035097</v>
+        <v>-412130944.2035098</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5951,55 +5761,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -6094,55 +5899,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -6237,55 +6037,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -6380,55 +6175,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -6523,55 +6313,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -6666,55 +6451,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -6809,55 +6589,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -6952,55 +6727,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -7095,55 +6865,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -7238,55 +7003,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -7381,55 +7141,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -7524,55 +7279,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -7667,55 +7417,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -7810,55 +7555,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -7953,55 +7693,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -8096,55 +7831,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -8239,55 +7969,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -8340,7 +8065,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2861049668.1251</v>
+        <v>-2861049668.125099</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8382,55 +8107,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -8525,55 +8245,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -8668,55 +8383,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -8811,55 +8521,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -8954,55 +8659,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -9097,55 +8797,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -9240,55 +8935,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -9383,55 +9073,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -9526,55 +9211,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -9669,55 +9349,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -9812,55 +9487,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -9955,55 +9625,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -10056,7 +9721,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-395204002.9777587</v>
+        <v>-395204002.9777586</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10098,55 +9763,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -10241,55 +9901,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -10384,55 +10039,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -10527,55 +10177,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -10670,55 +10315,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -10771,7 +10411,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-332106787.8604285</v>
+        <v>-332106787.8604286</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10813,55 +10453,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -10914,7 +10549,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-312816625.1910507</v>
+        <v>-312816625.1910508</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10956,55 +10591,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -11099,55 +10729,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -11242,55 +10867,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -11385,55 +11005,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -11528,55 +11143,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -11629,7 +11239,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-189667351.1309118</v>
+        <v>-189667351.1309117</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11671,55 +11281,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -11814,55 +11419,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -11957,55 +11557,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -12100,55 +11695,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -12201,7 +11791,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-213012274.4682261</v>
+        <v>-213012274.4682262</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12243,55 +11833,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -12386,55 +11971,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -12529,55 +12109,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -12672,55 +12247,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -12773,7 +12343,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-276735493.7468376</v>
+        <v>-276735493.7468375</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12815,55 +12385,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -12958,55 +12523,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -13059,7 +12619,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-293428808.0007818</v>
+        <v>-293428808.0007819</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13101,55 +12661,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -13244,55 +12799,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -13387,55 +12937,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -13530,55 +13075,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -13673,55 +13213,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -13816,55 +13351,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -13959,55 +13489,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -14102,55 +13627,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -14245,55 +13765,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -14388,55 +13903,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -14531,55 +14041,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -14674,55 +14179,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -14817,55 +14317,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>

--- a/Recycling/Met_rec_comp/metrec_Avg_b3.xlsx
+++ b/Recycling/Met_rec_comp/metrec_Avg_b3.xlsx
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.360113053772892E-06</v>
+        <v>-1.360113053772892E-12</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -742,16 +742,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.0005137382200008634</v>
+        <v>-5.137382200008637E-10</v>
       </c>
       <c r="E7">
-        <v>-3.951897657405341E-06</v>
+        <v>-3.95189765740534E-12</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-8161.000450903406</v>
+        <v>-0.008161000450903408</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-4540.805728606874</v>
+        <v>-0.004540805728606874</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -845,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-460084.7893662791</v>
+        <v>-0.4600847893662799</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -880,16 +880,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8211344.733864886</v>
+        <v>-8.211344733864879</v>
       </c>
       <c r="E7">
-        <v>-1336806.522267249</v>
+        <v>-1.336806522267251</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-327744188.1038886</v>
+        <v>-327.7441881038885</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-142715532.839395</v>
+        <v>-142.7155328393949</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-491939.7826316594</v>
+        <v>-0.4919397826316576</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1018,16 +1018,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8748664.560069121</v>
+        <v>-8.748664560069123</v>
       </c>
       <c r="E7">
-        <v>-1429363.293862751</v>
+        <v>-1.429363293862747</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-331364128.4566542</v>
+        <v>-331.3641284566539</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-142112062.6706753</v>
+        <v>-142.1120626706751</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-2.283087577474996E-05</v>
+        <v>-2.283087577474995E-11</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.007218870802955531</v>
+        <v>-7.218870802955536E-09</v>
       </c>
       <c r="E7">
-        <v>-6.633660653463022E-05</v>
+        <v>-6.63366065346302E-11</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-18083.13819547713</v>
+        <v>-0.01808313819547714</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-10061.48862759549</v>
+        <v>-0.01006148862759549</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.0002855432189383301</v>
+        <v>-2.855432189383302E-10</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.07680683010872882</v>
+        <v>-7.680683010872889E-08</v>
       </c>
       <c r="E7">
-        <v>-0.0008296645450759642</v>
+        <v>-8.296645450759642E-10</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-37637.75057429997</v>
+        <v>-0.03763775057429997</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1319,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-20941.45314636225</v>
+        <v>-0.02094145314636224</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.002800041351707445</v>
+        <v>-2.800041351707445E-09</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1432,16 +1432,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.6524308660637548</v>
+        <v>-6.524308660637552E-07</v>
       </c>
       <c r="E7">
-        <v>-0.00813570374003514</v>
+        <v>-8.13570374003514E-09</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-74833.51426342243</v>
+        <v>-0.07483351426342241</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1457,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-41634.92172000265</v>
+        <v>-0.04163492172000265</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.02239950688007882</v>
+        <v>-2.239950688007882E-08</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1570,16 +1570,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-4.601168133323589</v>
+        <v>-4.601168133323592E-06</v>
       </c>
       <c r="E7">
-        <v>-0.06508323592723873</v>
+        <v>-6.508323592723873E-08</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-143786.4232588848</v>
+        <v>-0.1437864232588847</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1595,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-79984.20364475778</v>
+        <v>-0.07998420364475778</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.1508320716697846</v>
+        <v>-1.508320716697845E-07</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1708,16 +1708,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-27.75355909886277</v>
+        <v>-2.775355909886279E-05</v>
       </c>
       <c r="E7">
-        <v>-0.4382524739689371</v>
+        <v>-4.382524739689369E-07</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-268545.9964121502</v>
+        <v>-0.2685459964121502</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-149304.8210537765</v>
+        <v>-0.1493048210537765</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1811,7 +1811,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.8765671328736115</v>
+        <v>-8.765671328736115E-07</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1846,16 +1846,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-146.5331375587964</v>
+        <v>-0.0001465331375587964</v>
       </c>
       <c r="E7">
-        <v>-2.546923279173356</v>
+        <v>-2.546923279173355E-06</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-487347.5374877143</v>
+        <v>-0.4873475374877145</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-270553.1876132968</v>
+        <v>-0.2705531876132968</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1949,7 +1949,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4.486143251498449</v>
+        <v>-4.486143251498449E-06</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1984,16 +1984,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-689.7391914833654</v>
+        <v>-0.0006897391914833655</v>
       </c>
       <c r="E7">
-        <v>-13.03478336392895</v>
+        <v>-1.303478336392895E-05</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-857254.8556463283</v>
+        <v>-0.8572548556463283</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2009,7 +2009,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-474109.8656342341</v>
+        <v>-0.4741098656342341</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2087,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-20.55388540989553</v>
+        <v>-2.055388540989553E-05</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2122,16 +2122,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-2937.364626135052</v>
+        <v>-0.002937364626135052</v>
       </c>
       <c r="E7">
-        <v>-59.72066173221729</v>
+        <v>-5.972066173221728E-05</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1461801.582023445</v>
+        <v>-1.461801582023445</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-801111.1297803776</v>
+        <v>-0.8011111297803776</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2225,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-85.44420867881759</v>
+        <v>-8.544420867881758E-05</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2260,16 +2260,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-11451.60759467518</v>
+        <v>-0.01145160759467518</v>
       </c>
       <c r="E7">
-        <v>-248.2637507080753</v>
+        <v>-0.0002482637507080752</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2430107.866897102</v>
+        <v>-2.430107866897102</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2285,7 +2285,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1304329.120338515</v>
+        <v>-1.304329120338515</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2501,7 +2501,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-325.7840417983282</v>
+        <v>-0.0003257840417983281</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2536,16 +2536,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-41234.71448379289</v>
+        <v>-0.04123471448379289</v>
       </c>
       <c r="E7">
-        <v>-946.5868943993194</v>
+        <v>-0.0009465868943993193</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-3991350.613937424</v>
+        <v>-3.991350613937425</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2561,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-2048471.807399554</v>
+        <v>-2.048471807399554</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2639,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1148.293225482376</v>
+        <v>-0.001148293225482375</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2674,16 +2674,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-137794.1090364006</v>
+        <v>-0.1377941090364006</v>
       </c>
       <c r="E7">
-        <v>-3336.441257739707</v>
+        <v>-0.003336441257739707</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-6625337.711798351</v>
+        <v>-6.625337711798353</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2699,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-3109684.609590979</v>
+        <v>-3.10968460959098</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2777,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-3753.415492609053</v>
+        <v>-0.003753415492609053</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2812,16 +2812,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-425943.6799543012</v>
+        <v>-0.4259436799543012</v>
       </c>
       <c r="E7">
-        <v>-10905.79481710306</v>
+        <v>-0.01090579481710306</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-11429385.90938015</v>
+        <v>-11.42938590938016</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2837,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-4574005.445939127</v>
+        <v>-4.574005445939129</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2915,7 +2915,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-11301.38666961107</v>
+        <v>-0.01130138666961107</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2950,16 +2950,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-1192043.09247451</v>
+        <v>-1.19204309247451</v>
       </c>
       <c r="E7">
-        <v>-32836.91997601065</v>
+        <v>-0.03283691997601065</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-20743302.54629444</v>
+        <v>-20.74330254629444</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2975,7 +2975,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-6534453.08682149</v>
+        <v>-6.534453086821489</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3053,7 +3053,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-30456.51592921401</v>
+        <v>-0.030456515929214</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3088,16 +3088,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-2844249.330079089</v>
+        <v>-2.844249330079089</v>
       </c>
       <c r="E7">
-        <v>-88493.40400014041</v>
+        <v>-0.08849340400014039</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-37887279.27537361</v>
+        <v>-37.88727927537361</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-9086267.218899488</v>
+        <v>-9.086267218899488</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3191,7 +3191,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-68309.85416741318</v>
+        <v>-0.06830985416741316</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3226,16 +3226,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-5155045.831377317</v>
+        <v>-5.155045831377316</v>
       </c>
       <c r="E7">
-        <v>-198478.7602126614</v>
+        <v>-0.1984787602126614</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-61530163.06617801</v>
+        <v>-61.53016306617801</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3251,7 +3251,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-12319858.86369421</v>
+        <v>-12.31985886369421</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3329,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-110890.3954010722</v>
+        <v>-0.1108903954010722</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3364,16 +3364,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-6534492.942583445</v>
+        <v>-6.534492942583443</v>
       </c>
       <c r="E7">
-        <v>-322199.3146809569</v>
+        <v>-0.3221993146809568</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-79832814.45921281</v>
+        <v>-79.83281445921278</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3389,7 +3389,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-16311590.68750189</v>
+        <v>-16.31159068750189</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3467,7 +3467,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-109281.69638448</v>
+        <v>-0.10928169638448</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3502,16 +3502,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-6866936.986957364</v>
+        <v>-6.866936986957363</v>
       </c>
       <c r="E7">
-        <v>-317525.1342093367</v>
+        <v>-0.3175251342093366</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-90857625.99066544</v>
+        <v>-90.85762599066541</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3527,7 +3527,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-21113545.04733685</v>
+        <v>-21.11354504733686</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-66611.94068047327</v>
+        <v>-0.06661194068047328</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3640,16 +3640,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7409032.338781988</v>
+        <v>-7.409032338781988</v>
       </c>
       <c r="E7">
-        <v>-193545.3612478463</v>
+        <v>-0.1935453612478463</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-103909074.4403413</v>
+        <v>-103.9090744403413</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3665,7 +3665,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-26742561.1371708</v>
+        <v>-26.7425611371708</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3743,7 +3743,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-58978.91588933424</v>
+        <v>-0.05897891588933424</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3778,16 +3778,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8121493.373972416</v>
+        <v>-8.121493373972415</v>
       </c>
       <c r="E7">
-        <v>-171367.1072362823</v>
+        <v>-0.1713671072362823</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-120491111.333211</v>
+        <v>-120.491111333211</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3803,7 +3803,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-33170033.65333406</v>
+        <v>-33.17003365333406</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3925,7 +3925,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.06422198974848439</v>
+        <v>-6.422198974848437E-08</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3941,7 +3941,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.03573332905169969</v>
+        <v>-3.573332905169968E-08</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4019,7 +4019,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-100479.3774875528</v>
+        <v>-0.1004793774875528</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4054,16 +4054,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8916538.275244284</v>
+        <v>-8.916538275244285</v>
       </c>
       <c r="E7">
-        <v>-291949.4195053221</v>
+        <v>-0.291949419505322</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-140161651.2015423</v>
+        <v>-140.1616512015424</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-40317546.65285368</v>
+        <v>-40.31754665285369</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4157,7 +4157,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-150131.5318983003</v>
+        <v>-0.1501315318983003</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4192,16 +4192,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9683961.369118063</v>
+        <v>-9.683961369118068</v>
       </c>
       <c r="E7">
-        <v>-436217.0097300136</v>
+        <v>-0.4362170097300136</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-160898736.511447</v>
+        <v>-160.8987365114471</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4217,7 +4217,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-48061142.84191386</v>
+        <v>-48.06114284191386</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4295,7 +4295,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-212536.5052175483</v>
+        <v>-0.2125365052175483</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4330,16 +4330,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10304785.37571505</v>
+        <v>-10.30478537571505</v>
       </c>
       <c r="E7">
-        <v>-617538.7514680783</v>
+        <v>-0.6175387514680782</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-181665470.8205311</v>
+        <v>-181.6654708205312</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4355,7 +4355,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-56246455.70421774</v>
+        <v>-56.24645570421772</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4433,7 +4433,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-286403.6116756426</v>
+        <v>-0.2864036116756427</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4468,16 +4468,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10967052.93015383</v>
+        <v>-10.96705293015383</v>
       </c>
       <c r="E7">
-        <v>-832164.4725883147</v>
+        <v>-0.8321644725883147</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-203528634.2168103</v>
+        <v>-203.5286342168103</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4493,7 +4493,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-64718584.70963522</v>
+        <v>-64.71858470963522</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4571,7 +4571,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-329542.157738492</v>
+        <v>-0.3295421577384919</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4606,16 +4606,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10804616.93115403</v>
+        <v>-10.80461693115404</v>
       </c>
       <c r="E7">
-        <v>-957506.346674991</v>
+        <v>-0.957506346674991</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-218933726.8916724</v>
+        <v>-218.9337268916725</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4631,7 +4631,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-73370304.85971496</v>
+        <v>-73.37030485971495</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4709,7 +4709,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-384415.4991786091</v>
+        <v>-0.3844154991786093</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4744,16 +4744,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10504185.80240305</v>
+        <v>-10.50418580240306</v>
       </c>
       <c r="E7">
-        <v>-1116944.438155445</v>
+        <v>-1.116944438155446</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-233950453.1316479</v>
+        <v>-233.950453131648</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4769,7 +4769,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-82209832.41724394</v>
+        <v>-82.20983241724394</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4847,7 +4847,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-591947.1649368198</v>
+        <v>-0.5919471649368198</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4882,16 +4882,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10502246.63020688</v>
+        <v>-10.50224663020688</v>
       </c>
       <c r="E7">
-        <v>-1719941.30041793</v>
+        <v>-1.71994130041793</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-255560285.0573389</v>
+        <v>-255.560285057339</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4907,7 +4907,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-91445044.90460898</v>
+        <v>-91.44504490460901</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4985,7 +4985,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-925842.1257489437</v>
+        <v>-0.925842125748944</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5020,16 +5020,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10301580.64978709</v>
+        <v>-10.30158064978709</v>
       </c>
       <c r="E7">
-        <v>-2690095.001827233</v>
+        <v>-2.690095001827233</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-280382763.1649476</v>
+        <v>-280.3827631649476</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5045,7 +5045,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-101574418.5227425</v>
+        <v>-101.5744185227425</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5123,7 +5123,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1264240.514632979</v>
+        <v>-1.264240514632979</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5158,16 +5158,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10290047.61356012</v>
+        <v>-10.29004761356013</v>
       </c>
       <c r="E7">
-        <v>-3673333.708779501</v>
+        <v>-3.673333708779501</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-309867862.1659169</v>
+        <v>-309.867862165917</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5183,7 +5183,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-113467113.7621771</v>
+        <v>-113.4671137621771</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5261,7 +5261,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1578142.20455715</v>
+        <v>-1.578142204557149</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5296,16 +5296,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10077127.26950401</v>
+        <v>-10.07712726950402</v>
       </c>
       <c r="E7">
-        <v>-4585395.65070837</v>
+        <v>-4.585395650708367</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-342762435.7805011</v>
+        <v>-342.7624357805012</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5321,7 +5321,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-128407144.5466416</v>
+        <v>-128.4071445466417</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5443,7 +5443,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2.701714670621426</v>
+        <v>-2.701714670621425E-06</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5459,7 +5459,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1.503243043499725</v>
+        <v>-1.503243043499725E-06</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5537,7 +5537,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1515625.261834214</v>
+        <v>-1.515625261834213</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5572,16 +5572,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9613890.307625534</v>
+        <v>-9.613890307625532</v>
       </c>
       <c r="E7">
-        <v>-4403748.574526301</v>
+        <v>-4.403748574526298</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-373201850.3668593</v>
+        <v>-373.2018503668593</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5597,7 +5597,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-148072798.2043695</v>
+        <v>-148.0727982043696</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5675,7 +5675,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1365982.446864602</v>
+        <v>-1.365982446864601</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5710,16 +5710,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8954933.985220721</v>
+        <v>-8.954933985220718</v>
       </c>
       <c r="E7">
-        <v>-3968951.5638767</v>
+        <v>-3.968951563876698</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-412130944.2035098</v>
+        <v>-412.13094420351</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5735,7 +5735,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-174433267.6511292</v>
+        <v>-174.4332676511293</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5813,7 +5813,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1335828.476183544</v>
+        <v>-1.335828476183544</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5848,16 +5848,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8204329.447023776</v>
+        <v>-8.204329447023772</v>
       </c>
       <c r="E7">
-        <v>-3881337.224932314</v>
+        <v>-3.881337224932313</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-469040656.2281205</v>
+        <v>-469.0406562281206</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5873,7 +5873,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-209561374.2383166</v>
+        <v>-209.5613742383167</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5951,7 +5951,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1202133.249640091</v>
+        <v>-1.202133249640091</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5986,16 +5986,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8473906.694257149</v>
+        <v>-8.473906694257144</v>
       </c>
       <c r="E7">
-        <v>-3492876.978103765</v>
+        <v>-3.492876978103766</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-550123283.082104</v>
+        <v>-550.1232830821043</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6011,7 +6011,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-255379624.0931959</v>
+        <v>-255.3796240931961</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6089,7 +6089,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1037409.677536013</v>
+        <v>-1.037409677536012</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6124,16 +6124,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10216018.55503814</v>
+        <v>-10.21601855503813</v>
       </c>
       <c r="E7">
-        <v>-3014261.838787381</v>
+        <v>-3.01426183878738</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-663115544.2931087</v>
+        <v>-663.1155442931084</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6149,7 +6149,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-313373325.5882719</v>
+        <v>-313.3733255882718</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6227,7 +6227,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-901725.8173138074</v>
+        <v>-0.9017258173138071</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6262,16 +6262,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-14466949.33972225</v>
+        <v>-14.46694933972224</v>
       </c>
       <c r="E7">
-        <v>-2620023.486414813</v>
+        <v>-2.620023486414812</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-818438927.4799929</v>
+        <v>-818.4389274799928</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6287,7 +6287,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-384311081.7650227</v>
+        <v>-384.3110817650227</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6365,7 +6365,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1136131.348477681</v>
+        <v>-1.13613134847768</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6400,16 +6400,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-22270801.79262665</v>
+        <v>-22.27080179262666</v>
       </c>
       <c r="E7">
-        <v>-3301104.126674622</v>
+        <v>-3.301104126674621</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1031663650.447345</v>
+        <v>-1031.663650447345</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6425,7 +6425,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-468008225.344897</v>
+        <v>-468.0082253448969</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6503,7 +6503,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1754040.762815443</v>
+        <v>-1.754040762815443</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6538,16 +6538,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-32934182.50889124</v>
+        <v>-32.93418250889126</v>
       </c>
       <c r="E7">
-        <v>-5096480.445015473</v>
+        <v>-5.096480445015473</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1295686653.505649</v>
+        <v>-1295.68665350565</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6563,7 +6563,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-563155855.7680885</v>
+        <v>-563.1558557680886</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6641,7 +6641,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-2436983.711048678</v>
+        <v>-2.436983711048677</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6676,16 +6676,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-44663313.77758443</v>
+        <v>-44.66331377758442</v>
       </c>
       <c r="E7">
-        <v>-7080815.960197637</v>
+        <v>-7.080815960197635</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1585123691.905294</v>
+        <v>-1585.123691905294</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6701,7 +6701,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-667227074.5405416</v>
+        <v>-667.2270745405418</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6779,7 +6779,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-3430260.990319107</v>
+        <v>-3.430260990319106</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6814,16 +6814,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-62094659.59905225</v>
+        <v>-62.09465959905222</v>
       </c>
       <c r="E7">
-        <v>-9966848.222158559</v>
+        <v>-9.966848222158559</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1933113610.758909</v>
+        <v>-1933.113610758908</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6839,7 +6839,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-776471840.8986139</v>
+        <v>-776.4718408986138</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6961,7 +6961,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-23.89398766937426</v>
+        <v>-2.389398766937425E-05</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6977,7 +6977,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-13.29469434209106</v>
+        <v>-1.329469434209105E-05</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7055,7 +7055,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4734503.13538875</v>
+        <v>-4.734503135388751</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7090,16 +7090,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-85269832.99266399</v>
+        <v>-85.26983299266399</v>
       </c>
       <c r="E7">
-        <v>-13756409.29099209</v>
+        <v>-13.75640929099209</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2331226004.071978</v>
+        <v>-2331.226004071979</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7115,7 +7115,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-886021472.6604462</v>
+        <v>-886.0214726604466</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-5398905.945735626</v>
+        <v>-5.398905945735628</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7228,16 +7228,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-97175174.14255635</v>
+        <v>-97.17517414255636</v>
       </c>
       <c r="E7">
-        <v>-15686875.21990874</v>
+        <v>-15.68687521990874</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2621574307.6597</v>
+        <v>-2621.574307659701</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7253,7 +7253,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-990131888.4388481</v>
+        <v>-990.1318884388486</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-5444759.491827768</v>
+        <v>-5.444759491827767</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7366,16 +7366,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-97748216.57609399</v>
+        <v>-97.74821657609399</v>
       </c>
       <c r="E7">
-        <v>-15820105.7045972</v>
+        <v>-15.82010570459719</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2793044836.475633</v>
+        <v>-2793.044836475634</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1082586926.2517</v>
+        <v>-1082.586926251701</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7469,7 +7469,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-5400181.343710912</v>
+        <v>-5.400181343710913</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7504,16 +7504,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-96494528.34810975</v>
+        <v>-96.49452834810977</v>
       </c>
       <c r="E7">
-        <v>-15690580.97235102</v>
+        <v>-15.69058097235102</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2916982047.4765</v>
+        <v>-2916.982047476501</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7529,7 +7529,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1157252659.627084</v>
+        <v>-1157.252659627085</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7607,7 +7607,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-5261643.558754049</v>
+        <v>-5.26164355875405</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7642,16 +7642,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-93657871.88172232</v>
+        <v>-93.65787188172234</v>
       </c>
       <c r="E7">
-        <v>-15288050.35453623</v>
+        <v>-15.28805035453624</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2985376161.999331</v>
+        <v>-2985.376161999332</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7667,7 +7667,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1208727174.030206</v>
+        <v>-1208.727174030207</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7745,7 +7745,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-5049676.292881894</v>
+        <v>-5.049676292881895</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7780,16 +7780,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-89555541.22251882</v>
+        <v>-89.55554122251888</v>
       </c>
       <c r="E7">
-        <v>-14672165.56530998</v>
+        <v>-14.67216556530999</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2993812956.951092</v>
+        <v>-2993.812956951093</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7805,7 +7805,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1232985477.033704</v>
+        <v>-1232.985477033704</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7883,7 +7883,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4888295.266242712</v>
+        <v>-4.888295266242713</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7918,16 +7918,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-86282366.52040811</v>
+        <v>-86.28236652040813</v>
       </c>
       <c r="E7">
-        <v>-14203262.41100533</v>
+        <v>-14.20326241100533</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2956799886.858154</v>
+        <v>-2956.799886858155</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7943,7 +7943,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1227896726.760468</v>
+        <v>-1227.896726760469</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8021,7 +8021,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4698736.696441416</v>
+        <v>-4.698736696441415</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8056,16 +8056,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-82272862.68261912</v>
+        <v>-82.27286268261912</v>
       </c>
       <c r="E7">
-        <v>-13652487.55750264</v>
+        <v>-13.65248755750265</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2861049668.125099</v>
+        <v>-2861.0496681251</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1193505012.088393</v>
+        <v>-1193.505012088393</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8159,7 +8159,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4222601.913301527</v>
+        <v>-4.222601913301528</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8194,16 +8194,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-72698065.69378798</v>
+        <v>-72.69806569378794</v>
       </c>
       <c r="E7">
-        <v>-12269046.72596283</v>
+        <v>-12.26904672596283</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2668922237.927979</v>
+        <v>-2668.922237927981</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8219,7 +8219,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1132016379.955482</v>
+        <v>-1132.016379955483</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-3180603.289040706</v>
+        <v>-3.180603289040707</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8332,16 +8332,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-52653557.153428</v>
+        <v>-52.65355715342795</v>
       </c>
       <c r="E7">
-        <v>-9241451.40157922</v>
+        <v>-9.241451401579223</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2345082491.59833</v>
+        <v>-2345.082491598331</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8357,7 +8357,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1047508147.788978</v>
+        <v>-1047.508147788979</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8479,7 +8479,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-115.1951921709256</v>
+        <v>-0.0001151951921709256</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8495,7 +8495,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-64.09498869683662</v>
+        <v>-6.409498869683661E-05</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8573,7 +8573,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1720606.661518854</v>
+        <v>-1.720606661518853</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8608,16 +8608,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-25641716.5553471</v>
+        <v>-25.64171655534708</v>
       </c>
       <c r="E7">
-        <v>-4999335.471496599</v>
+        <v>-4.999335471496597</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1928565425.340566</v>
+        <v>-1928.565425340567</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8633,7 +8633,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-945442692.1233479</v>
+        <v>-945.4426921233484</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-908941.7691695434</v>
+        <v>-0.9089417691695423</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8746,16 +8746,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-11601270.57145249</v>
+        <v>-11.60127057145252</v>
       </c>
       <c r="E7">
-        <v>-2640989.907665994</v>
+        <v>-2.640989907665991</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1602427187.812468</v>
+        <v>-1602.427187812469</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8771,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-832098747.1919512</v>
+        <v>-832.0987471919516</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8849,7 +8849,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-710938.2621285897</v>
+        <v>-0.7109382621285919</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8884,16 +8884,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9921459.362842131</v>
+        <v>-9.921459362842167</v>
       </c>
       <c r="E7">
-        <v>-2065677.735297237</v>
+        <v>-2.065677735297244</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1373110543.871955</v>
+        <v>-1373.110543871956</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8909,7 +8909,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-714015745.9975913</v>
+        <v>-714.0157459975911</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8987,7 +8987,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-495036.2217540582</v>
+        <v>-0.4950362217540616</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9022,16 +9022,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8562745.045593303</v>
+        <v>-8.562745045593269</v>
       </c>
       <c r="E7">
-        <v>-1438360.20075969</v>
+        <v>-1.438360200759701</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1148517792.728537</v>
+        <v>-1148.517792728537</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9047,7 +9047,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-597494565.0458823</v>
+        <v>-597.4945650458826</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9125,7 +9125,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-277212.174007858</v>
+        <v>-0.2772121740078617</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9160,16 +9160,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-5989395.115446739</v>
+        <v>-5.989395115446635</v>
       </c>
       <c r="E7">
-        <v>-805458.1477818984</v>
+        <v>-0.8054581477819095</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-927884066.2344738</v>
+        <v>-927.8840662344734</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-488149015.8837779</v>
+        <v>-488.1490158837781</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-99957.57096879842</v>
+        <v>-0.09995757096880088</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9298,16 +9298,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-2922133.629694389</v>
+        <v>-2.922133629694295</v>
       </c>
       <c r="E7">
-        <v>-290433.2764513575</v>
+        <v>-0.2904332764513647</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-725628690.782783</v>
+        <v>-725.628690782782</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9323,7 +9323,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-390494156.2494746</v>
+        <v>-390.4941562494745</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9401,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-34501.64839778595</v>
+        <v>-0.03450164839778747</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9436,16 +9436,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-2266541.017983624</v>
+        <v>-2.266541017983549</v>
       </c>
       <c r="E7">
-        <v>-100246.8016181542</v>
+        <v>-0.1002468016181586</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-570256847.4675443</v>
+        <v>-570.2568474675438</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9461,7 +9461,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-307596827.6835134</v>
+        <v>-307.5968276835134</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9539,7 +9539,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-80889.31558939279</v>
+        <v>-0.08088931558939637</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9574,16 +9574,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-4054983.476406642</v>
+        <v>-4.054983476406568</v>
       </c>
       <c r="E7">
-        <v>-235029.2101822733</v>
+        <v>-0.2350292101822837</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-464538770.908535</v>
+        <v>-464.5387709085343</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9599,7 +9599,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-240865973.0845754</v>
+        <v>-240.8659730845753</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9677,7 +9677,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-205383.3889080692</v>
+        <v>-0.2053833889080766</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9712,16 +9712,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-6642209.059520948</v>
+        <v>-6.642209059520938</v>
       </c>
       <c r="E7">
-        <v>-596754.9030165373</v>
+        <v>-0.5967549030165586</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-395204002.9777586</v>
+        <v>-395.2040029777586</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-190073185.4943731</v>
+        <v>-190.073185494373</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9815,7 +9815,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-421851.7380718726</v>
+        <v>-0.4218517380718815</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9850,16 +9850,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9529227.472590409</v>
+        <v>-9.529227472590435</v>
       </c>
       <c r="E7">
-        <v>-1225717.884872955</v>
+        <v>-1.22571788487298</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-356099402.5695304</v>
+        <v>-356.0994025695307</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9875,7 +9875,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-153640235.9309696</v>
+        <v>-153.6402359309695</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.942850502833102E-11</v>
+        <v>-1.942850502833101E-17</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9988,16 +9988,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-1.358846133085101E-08</v>
+        <v>-1.358846133085102E-14</v>
       </c>
       <c r="E7">
-        <v>-5.645079524482648E-11</v>
+        <v>-5.645079524482646E-17</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-414.3679286730751</v>
+        <v>-0.0004143679286730751</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10013,7 +10013,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-230.5556959253918</v>
+        <v>-0.0002305556959253918</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10091,7 +10091,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-660854.8438820282</v>
+        <v>-0.66085484388203</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10126,16 +10126,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-12226371.54908247</v>
+        <v>-12.22637154908246</v>
       </c>
       <c r="E7">
-        <v>-1920157.079720552</v>
+        <v>-1.920157079720557</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-337583469.5591965</v>
+        <v>-337.5834695591964</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10151,7 +10151,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-129132548.4412253</v>
+        <v>-129.1325484412253</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10229,7 +10229,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-836264.3655045592</v>
+        <v>-0.8362643655045557</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10264,16 +10264,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-14658434.45573505</v>
+        <v>-14.65843445573505</v>
       </c>
       <c r="E7">
-        <v>-2429820.946017376</v>
+        <v>-2.429820946017366</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-332104348.9275478</v>
+        <v>-332.1043489275477</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10289,7 +10289,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-113815115.5606263</v>
+        <v>-113.8151155606263</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10367,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-935255.4112996848</v>
+        <v>-0.9352554112996844</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10402,16 +10402,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-16467800.80100003</v>
+        <v>-16.46780080100006</v>
       </c>
       <c r="E7">
-        <v>-2717445.920203663</v>
+        <v>-2.717445920203662</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-332106787.8604286</v>
+        <v>-332.1067878604288</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10427,7 +10427,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-105113464.9396431</v>
+        <v>-105.1134649396431</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10505,7 +10505,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-854533.4330086812</v>
+        <v>-0.8545334330086819</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10540,16 +10540,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-15137810.488119</v>
+        <v>-15.13781048811906</v>
       </c>
       <c r="E7">
-        <v>-2482902.919513804</v>
+        <v>-2.482902919513807</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-312816625.1910508</v>
+        <v>-312.8166251910512</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10565,7 +10565,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-100884804.8453383</v>
+        <v>-100.8848048453383</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10643,7 +10643,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-519073.2410106177</v>
+        <v>-0.5190732410106146</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10678,16 +10678,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9193886.797260422</v>
+        <v>-9.193886797260481</v>
       </c>
       <c r="E7">
-        <v>-1508201.336264935</v>
+        <v>-1.508201336264926</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-258694896.1166914</v>
+        <v>-258.6948961166918</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10703,7 +10703,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-99499756.16143928</v>
+        <v>-99.49975616143936</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10781,7 +10781,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-171190.2457926646</v>
+        <v>-0.1711902457926568</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10816,16 +10816,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-2974885.686326288</v>
+        <v>-2.97488568632633</v>
       </c>
       <c r="E7">
-        <v>-497404.4837243654</v>
+        <v>-0.4974044837243428</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-205291967.1623028</v>
+        <v>-205.291967162303</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-99802370.35839778</v>
+        <v>-99.80237035839779</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-24953.65264519699</v>
+        <v>-0.02495365264519222</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10954,16 +10954,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-396734.4865943867</v>
+        <v>-0.3967344865944075</v>
       </c>
       <c r="E7">
-        <v>-72504.4739175975</v>
+        <v>-0.07250447391758365</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-185075502.7802565</v>
+        <v>-185.0755027802566</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10979,7 +10979,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-101024574.3808131</v>
+        <v>-101.0245743808131</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-5613.235174542174</v>
+        <v>-0.005613235174541652</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11092,16 +11092,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-80182.75855714981</v>
+        <v>-0.0801827585571509</v>
       </c>
       <c r="E7">
-        <v>-16309.62284730966</v>
+        <v>-0.01630962284730814</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-185296811.5950826</v>
+        <v>-185.2968115950827</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11117,7 +11117,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-102697560.4515683</v>
+        <v>-102.6975604515683</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11195,7 +11195,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-13493.40119309175</v>
+        <v>-0.01349340119309135</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11230,16 +11230,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-192082.0689178672</v>
+        <v>-0.1920820689178655</v>
       </c>
       <c r="E7">
-        <v>-39205.9618996302</v>
+        <v>-0.03920596189962904</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-189667351.1309117</v>
+        <v>-189.6673511309118</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11255,7 +11255,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-104567419.8342621</v>
+        <v>-104.5674198342622</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11333,7 +11333,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-35917.44143099245</v>
+        <v>-0.0359174414309914</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11368,16 +11368,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-513480.5518878217</v>
+        <v>-0.5134805518878173</v>
       </c>
       <c r="E7">
-        <v>-104360.4811066196</v>
+        <v>-0.1043604811066165</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-196056417.862793</v>
+        <v>-196.0564178627927</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-106511177.5757198</v>
+        <v>-106.5111775757197</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11471,7 +11471,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.489210329870007E-09</v>
+        <v>-1.489210329870007E-15</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11506,16 +11506,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8.10702718304821E-07</v>
+        <v>-8.107027183048216E-13</v>
       </c>
       <c r="E7">
-        <v>-4.326998257734398E-09</v>
+        <v>-4.326998257734396E-15</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1260.304952250225</v>
+        <v>-0.001260304952250225</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11531,7 +11531,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-701.2378708177607</v>
+        <v>-0.0007012378708177605</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11609,7 +11609,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-77670.82386914434</v>
+        <v>-0.07767082386914216</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11644,16 +11644,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-1120295.851569187</v>
+        <v>-1.120295851569177</v>
       </c>
       <c r="E7">
-        <v>-225677.6714595576</v>
+        <v>-0.2256776714595512</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-205008640.7505496</v>
+        <v>-205.0086407505494</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11669,7 +11669,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-108458189.0689611</v>
+        <v>-108.4581890689611</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11747,7 +11747,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-110713.4100394567</v>
+        <v>-0.1107134100394539</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11782,16 +11782,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-1644318.443307563</v>
+        <v>-1.64431844330755</v>
       </c>
       <c r="E7">
-        <v>-321685.0721082358</v>
+        <v>-0.3216850721082278</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-213012274.4682262</v>
+        <v>-213.0122744682258</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11807,7 +11807,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-110331974.2357111</v>
+        <v>-110.3319742357109</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11885,7 +11885,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-83999.01886486949</v>
+        <v>-0.08399901886486898</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11920,16 +11920,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-1439726.69345734</v>
+        <v>-1.439726693457333</v>
       </c>
       <c r="E7">
-        <v>-244064.6569456819</v>
+        <v>-0.2440646569456804</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-213913858.9690483</v>
+        <v>-213.9138589690481</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11945,7 +11945,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-112026845.4614852</v>
+        <v>-112.0268454614851</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12023,7 +12023,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-94925.97390499809</v>
+        <v>-0.09492597390500063</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12058,16 +12058,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-2047205.448106371</v>
+        <v>-2.047205448106368</v>
       </c>
       <c r="E7">
-        <v>-275813.64127156</v>
+        <v>-0.2758136412715673</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-221134388.580009</v>
+        <v>-221.1343885800091</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12083,7 +12083,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-113423017.8807254</v>
+        <v>-113.4230178807254</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12161,7 +12161,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-214649.3624030848</v>
+        <v>-0.2146493624030902</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12196,16 +12196,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-4693765.23588534</v>
+        <v>-4.693765235885331</v>
       </c>
       <c r="E7">
-        <v>-623677.7965561257</v>
+        <v>-0.6236777965561413</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-245216416.2027492</v>
+        <v>-245.2164162027493</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12221,7 +12221,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-114430277.1089078</v>
+        <v>-114.4302771089078</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12299,7 +12299,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-381416.9014244512</v>
+        <v>-0.381416901424457</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12334,16 +12334,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8298391.375220868</v>
+        <v>-8.29839137522084</v>
       </c>
       <c r="E7">
-        <v>-1108231.815769177</v>
+        <v>-1.108231815769193</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-276735493.7468375</v>
+        <v>-276.7354937468376</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12359,7 +12359,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-115039647.0178124</v>
+        <v>-115.0396470178125</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12437,7 +12437,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-471827.5163044629</v>
+        <v>-0.4718275163044625</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12472,16 +12472,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10036255.53836592</v>
+        <v>-10.03625553836585</v>
       </c>
       <c r="E7">
-        <v>-1370925.785331323</v>
+        <v>-1.370925785331322</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-292218852.6796159</v>
+        <v>-292.2188526796154</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12497,7 +12497,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-115358463.4542318</v>
+        <v>-115.3584634542318</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12575,7 +12575,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-502055.50746928</v>
+        <v>-0.5020555074692774</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12610,16 +12610,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10040051.91988035</v>
+        <v>-10.0400519198803</v>
       </c>
       <c r="E7">
-        <v>-1458755.195644635</v>
+        <v>-1.458755195644627</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-293428808.0007819</v>
+        <v>-293.4288080007814</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12635,7 +12635,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-115608905.8177007</v>
+        <v>-115.6089058177007</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12713,7 +12713,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-553365.6165269032</v>
+        <v>-0.5533656165269019</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12748,16 +12748,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10437570.86777566</v>
+        <v>-10.43757086777572</v>
       </c>
       <c r="E7">
-        <v>-1607840.08180432</v>
+        <v>-1.607840081804316</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-298433967.6795667</v>
+        <v>-298.4339676795672</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12773,7 +12773,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-116083395.9410974</v>
+        <v>-116.0833959410974</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12851,7 +12851,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-620764.7696434783</v>
+        <v>-0.6207647696434778</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12886,16 +12886,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-11527403.16901948</v>
+        <v>-11.52740316901959</v>
       </c>
       <c r="E7">
-        <v>-1803672.740401075</v>
+        <v>-1.803672740401074</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-309813731.9964464</v>
+        <v>-309.8137319964475</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12911,7 +12911,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-117068313.4970037</v>
+        <v>-117.0683134970039</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12989,7 +12989,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-5.646780882565986E-08</v>
+        <v>-5.646780882565985E-14</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13024,16 +13024,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-2.570216839284881E-05</v>
+        <v>-2.570216839284883E-11</v>
       </c>
       <c r="E7">
-        <v>-1.640709210149229E-07</v>
+        <v>-1.640709210149229E-13</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-3382.133340547808</v>
+        <v>-0.003382133340547807</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13049,7 +13049,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1881.830152822812</v>
+        <v>-0.001881830152822812</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13127,7 +13127,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-681894.8430824743</v>
+        <v>-0.6818948430824764</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13162,16 +13162,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-12502055.48132154</v>
+        <v>-12.50205548132156</v>
       </c>
       <c r="E7">
-        <v>-1981290.176944643</v>
+        <v>-1.981290176944649</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-321472788.7838541</v>
+        <v>-321.4727887838546</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13187,7 +13187,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-118762205.8814116</v>
+        <v>-118.7622058814117</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13265,7 +13265,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-736351.4706049393</v>
+        <v>-0.7363514706049417</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13300,16 +13300,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-12979673.58742519</v>
+        <v>-12.97967358742519</v>
       </c>
       <c r="E7">
-        <v>-2139517.478814329</v>
+        <v>-2.139517478814336</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-330701694.0419376</v>
+        <v>-330.7016940419379</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13325,7 +13325,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-121218178.5171346</v>
+        <v>-121.2181785171347</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13403,7 +13403,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-770737.152680782</v>
+        <v>-0.7707371526807812</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13438,16 +13438,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-13007918.08832477</v>
+        <v>-13.0079180883248</v>
       </c>
       <c r="E7">
-        <v>-2239427.332680417</v>
+        <v>-2.239427332680415</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-337333680.7101647</v>
+        <v>-337.3336807101653</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13463,7 +13463,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-124329861.4253198</v>
+        <v>-124.32986142532</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13541,7 +13541,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-750398.0803837889</v>
+        <v>-0.7503980803837853</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13576,16 +13576,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-12506755.70642531</v>
+        <v>-12.50675570642535</v>
       </c>
       <c r="E7">
-        <v>-2180330.824532568</v>
+        <v>-2.180330824532558</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-339520417.4849615</v>
+        <v>-339.520417484962</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13601,7 +13601,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-127861749.680666</v>
+        <v>-127.8617496806662</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13679,7 +13679,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-663727.0665328222</v>
+        <v>-0.663727066532819</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13714,16 +13714,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-11337991.18206346</v>
+        <v>-11.33799118206346</v>
       </c>
       <c r="E7">
-        <v>-1928502.510957855</v>
+        <v>-1.928502510957845</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-335419611.3797715</v>
+        <v>-335.4196113797719</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13739,7 +13739,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-131508026.9996446</v>
+        <v>-131.5080269996449</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13817,7 +13817,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-528022.2503119173</v>
+        <v>-0.5280222503119196</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13852,16 +13852,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9332279.105285868</v>
+        <v>-9.33227910528584</v>
       </c>
       <c r="E7">
-        <v>-1534203.269557026</v>
+        <v>-1.534203269557032</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-323650735.1071142</v>
+        <v>-323.6507351071144</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13877,7 +13877,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-134957175.8463437</v>
+        <v>-134.9571758463439</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13955,7 +13955,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-381337.2429419493</v>
+        <v>-0.3813372429419519</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13990,16 +13990,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-6861552.467854487</v>
+        <v>-6.861552467854414</v>
       </c>
       <c r="E7">
-        <v>-1108000.362825233</v>
+        <v>-1.108000362825241</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-307380834.1417248</v>
+        <v>-307.3808341417245</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14015,7 +14015,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-137943788.8567619</v>
+        <v>-137.943788856762</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -14093,7 +14093,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-283257.9427079593</v>
+        <v>-0.2832579427079565</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14128,16 +14128,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-5100109.678121232</v>
+        <v>-5.100109678121219</v>
       </c>
       <c r="E7">
-        <v>-823024.525148007</v>
+        <v>-0.823024525147999</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-296308780.9530738</v>
+        <v>-296.308780953074</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14153,7 +14153,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-140278802.4457505</v>
+        <v>-140.2788024457507</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -14231,7 +14231,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-294817.5086406968</v>
+        <v>-0.2948175086406949</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14266,16 +14266,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-5283478.580287394</v>
+        <v>-5.283478580287466</v>
       </c>
       <c r="E7">
-        <v>-856611.6019012867</v>
+        <v>-0.8566116019012813</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-300770162.5281537</v>
+        <v>-300.7701625281543</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14291,7 +14291,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-141858548.6662355</v>
+        <v>-141.8585486662355</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -14369,7 +14369,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-385595.3984085541</v>
+        <v>-0.3855953984085548</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14404,16 +14404,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-6897366.080168938</v>
+        <v>-6.897366080168984</v>
       </c>
       <c r="E7">
-        <v>-1120372.712731489</v>
+        <v>-1.12037271273149</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-316218969.5359895</v>
+        <v>-316.21896953599</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14429,7 +14429,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-142658118.4080635</v>
+        <v>-142.6581184080636</v>
       </c>
       <c r="G8">
         <v>0</v>

--- a/Recycling/Met_rec_comp/metrec_Avg_b3.xlsx
+++ b/Recycling/Met_rec_comp/metrec_Avg_b3.xlsx
@@ -751,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.008161000450903408</v>
+        <v>-0.008161003344445703</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.004540805728606874</v>
+        <v>-0.004540807338583448</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -845,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.4600847893662799</v>
+        <v>-5.758434657640546</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -880,16 +880,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8.211344733864879</v>
+        <v>-107.8520753688896</v>
       </c>
       <c r="E7">
-        <v>-1.336806522267251</v>
+        <v>-16.73150946586772</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-327.7441881038885</v>
+        <v>-2937.597673415142</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-142.7155328393949</v>
+        <v>-1117.639281413866</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.4919397826316576</v>
+        <v>-5.611881910625822</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1018,16 +1018,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8.748664560069123</v>
+        <v>-103.8606421016755</v>
       </c>
       <c r="E7">
-        <v>-1.429363293862747</v>
+        <v>-16.30569085027011</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-331.3641284566539</v>
+        <v>-2960.639177473486</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-142.1120626706751</v>
+        <v>-1148.690580951965</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.01808313819547714</v>
+        <v>-0.01808315186700165</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.01006148862759549</v>
+        <v>-0.01006149623447728</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.03763775057429997</v>
+        <v>-0.03763780506857493</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1319,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.02094145314636224</v>
+        <v>-0.02094148346715839</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.07483351426342241</v>
+        <v>-0.07483370459695037</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1457,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.04163492172000265</v>
+        <v>-0.04163502762221169</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.1437864232588847</v>
+        <v>-0.1437870206763787</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1595,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.07998420364475778</v>
+        <v>-0.07998453604984175</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1717,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.2685459964121502</v>
+        <v>-0.2685477121219689</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.1493048210537765</v>
+        <v>-0.1493057756804355</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1855,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.4873475374877145</v>
+        <v>-0.4873521083287281</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.2705531876132968</v>
+        <v>-0.2705557308444646</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1993,7 +1993,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.8572548556463283</v>
+        <v>-0.8572662784159204</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2009,7 +2009,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.4741098656342341</v>
+        <v>-0.4741162213012902</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1.461801582023445</v>
+        <v>-1.461828607690254</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.8011111297803776</v>
+        <v>-0.8011261669514261</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2269,7 +2269,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2.430107866897102</v>
+        <v>-2.430168866326226</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2285,7 +2285,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1.304329120338515</v>
+        <v>-1.304363060624099</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2545,7 +2545,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-3.991350613937425</v>
+        <v>-3.99148277351489</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2561,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-2.048471807399554</v>
+        <v>-2.048545341428746</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2639,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.001148293225482375</v>
+        <v>-0.001148293225482376</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2674,16 +2674,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.1377941090364006</v>
+        <v>-0.1377941090364007</v>
       </c>
       <c r="E7">
-        <v>-0.003336441257739707</v>
+        <v>-0.003336441257739708</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-6.625337711798353</v>
+        <v>-6.625613884317977</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2699,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-3.10968460959098</v>
+        <v>-3.109838272900967</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2777,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.003753415492609053</v>
+        <v>-0.003753415492609056</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2812,16 +2812,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.4259436799543012</v>
+        <v>-0.4259436799543016</v>
       </c>
       <c r="E7">
-        <v>-0.01090579481710306</v>
+        <v>-0.01090579481710307</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-11.42938590938016</v>
+        <v>-11.42994454605264</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2837,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-4.574005445939129</v>
+        <v>-4.5743162732448</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2915,7 +2915,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.01130138666961107</v>
+        <v>-0.01130138666961108</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2950,16 +2950,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-1.19204309247451</v>
+        <v>-1.192043092474514</v>
       </c>
       <c r="E7">
-        <v>-0.03283691997601065</v>
+        <v>-0.03283691997601069</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-20.74330254629444</v>
+        <v>-20.74439921366693</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2975,7 +2975,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-6.534453086821489</v>
+        <v>-6.535063276201078</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3053,7 +3053,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.030456515929214</v>
+        <v>-0.03045651592921412</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3088,16 +3088,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-2.844249330079089</v>
+        <v>-2.84424933007912</v>
       </c>
       <c r="E7">
-        <v>-0.08849340400014039</v>
+        <v>-0.08849340400014075</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-37.88727927537361</v>
+        <v>-37.88937257586676</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-9.086267218899488</v>
+        <v>-9.087431938267587</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3191,7 +3191,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.06830985416741316</v>
+        <v>-0.06830985416741429</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3226,16 +3226,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-5.155045831377316</v>
+        <v>-5.15504583137757</v>
       </c>
       <c r="E7">
-        <v>-0.1984787602126614</v>
+        <v>-0.1984787602126647</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-61.53016306617801</v>
+        <v>-61.53405358443452</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3251,7 +3251,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-12.31985886369421</v>
+        <v>-12.32202356101235</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3329,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.1108903954010722</v>
+        <v>-0.1108903954010811</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3364,16 +3364,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-6.534492942583443</v>
+        <v>-6.53449294258537</v>
       </c>
       <c r="E7">
-        <v>-0.3221993146809568</v>
+        <v>-0.3221993146809827</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-79.83281445921278</v>
+        <v>-79.83986285691213</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3389,7 +3389,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-16.31159068750189</v>
+        <v>-16.31551243945558</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3467,7 +3467,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.10928169638448</v>
+        <v>-0.1092816963845457</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3502,16 +3502,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-6.866936986957363</v>
+        <v>-6.866936986970742</v>
       </c>
       <c r="E7">
-        <v>-0.3175251342093366</v>
+        <v>-0.3175251342095275</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-90.85762599066541</v>
+        <v>-90.87008568506448</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3527,7 +3527,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-21.11354504733686</v>
+        <v>-21.1204776627546</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.06661194068047328</v>
+        <v>-0.06661194068091839</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3640,16 +3640,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7.409032338781988</v>
+        <v>-7.409032338867744</v>
       </c>
       <c r="E7">
-        <v>-0.1935453612478463</v>
+        <v>-0.1935453612491396</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-103.9090744403413</v>
+        <v>-103.930585379996</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3665,7 +3665,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-26.7425611371708</v>
+        <v>-26.75452989530315</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3743,7 +3743,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.05897891588933424</v>
+        <v>-0.05897891589212611</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3778,16 +3778,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8.121493373972415</v>
+        <v>-8.121493374483101</v>
       </c>
       <c r="E7">
-        <v>-0.1713671072362823</v>
+        <v>-0.1713671072443942</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-120.491111333211</v>
+        <v>-120.5274139320646</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3803,7 +3803,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-33.17003365333406</v>
+        <v>-33.19023253816087</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4019,7 +4019,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.1004793774875528</v>
+        <v>-0.1004793775038572</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4054,16 +4054,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8.916538275244285</v>
+        <v>-8.916538278085373</v>
       </c>
       <c r="E7">
-        <v>-0.291949419505322</v>
+        <v>-0.2919494195526954</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-140.1616512015424</v>
+        <v>-140.22159286433</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-40.31754665285369</v>
+        <v>-40.35089838193373</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4157,7 +4157,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.1501315318983003</v>
+        <v>-0.1501315319874052</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4192,16 +4192,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9.683961369118068</v>
+        <v>-9.683961383954982</v>
       </c>
       <c r="E7">
-        <v>-0.4362170097300136</v>
+        <v>-0.4362170099889136</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-160.8987365114471</v>
+        <v>-160.9956562899592</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4217,7 +4217,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-48.06114284191386</v>
+        <v>-48.11506926793857</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4295,7 +4295,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.2125365052175483</v>
+        <v>-0.2125365056753019</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4330,16 +4330,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10.30478537571505</v>
+        <v>-10.30478544875116</v>
       </c>
       <c r="E7">
-        <v>-0.6175387514680782</v>
+        <v>-0.6175387527981113</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-181.6654708205312</v>
+        <v>-181.8190589936858</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4355,7 +4355,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-56.24645570421772</v>
+        <v>-56.33191237181351</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4433,7 +4433,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.2864036116756427</v>
+        <v>-0.286403613894716</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4468,16 +4468,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10.96705293015383</v>
+        <v>-10.96705327022754</v>
       </c>
       <c r="E7">
-        <v>-0.8321644725883147</v>
+        <v>-0.8321644790359778</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-203.5286342168103</v>
+        <v>-203.76737098875</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4493,7 +4493,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-64.71858470963522</v>
+        <v>-64.85141722995419</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4571,7 +4571,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.3295421577384919</v>
+        <v>-0.3295421679222445</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4606,16 +4606,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10.80461693115404</v>
+        <v>-10.80461843302204</v>
       </c>
       <c r="E7">
-        <v>-0.957506346674991</v>
+        <v>-0.9575063762645515</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-218.9337268916725</v>
+        <v>-219.2980060856721</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4631,7 +4631,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-73.37030485971495</v>
+        <v>-73.57298476288112</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4709,7 +4709,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.3844154991786093</v>
+        <v>-0.3844155435299524</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4744,16 +4744,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10.50418580240306</v>
+        <v>-10.50419210534795</v>
       </c>
       <c r="E7">
-        <v>-1.116944438155446</v>
+        <v>-1.116944567021181</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-233.950453131648</v>
+        <v>-234.4964928833742</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4769,7 +4769,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-82.20983241724394</v>
+        <v>-82.5136244862297</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4847,7 +4847,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.5919471649368198</v>
+        <v>-0.5919473485422759</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4882,16 +4882,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10.50224663020688</v>
+        <v>-10.50227179393826</v>
       </c>
       <c r="E7">
-        <v>-1.71994130041793</v>
+        <v>-1.719941833895622</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-255.560285057339</v>
+        <v>-256.3649260713185</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4907,7 +4907,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-91.44504490460901</v>
+        <v>-91.89264488556532</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4985,7 +4985,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.925842125748944</v>
+        <v>-0.9258428488559632</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5020,16 +5020,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10.30158064978709</v>
+        <v>-10.3016762478784</v>
       </c>
       <c r="E7">
-        <v>-2.690095001827233</v>
+        <v>-2.690097102862091</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-280.3827631649476</v>
+        <v>-281.5492885175</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5045,7 +5045,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-101.5744185227425</v>
+        <v>-102.2230780233798</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5123,7 +5123,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.264240514632979</v>
+        <v>-1.264243224062194</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5158,16 +5158,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10.29004761356013</v>
+        <v>-10.29039306758473</v>
       </c>
       <c r="E7">
-        <v>-3.673333708779501</v>
+        <v>-3.673341581203736</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-309.867862165917</v>
+        <v>-311.5331415056567</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5183,7 +5183,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-113.4671137621771</v>
+        <v>-114.3922372743336</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5261,7 +5261,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.578142204557149</v>
+        <v>-1.578151856984296</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5296,16 +5296,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10.07712726950402</v>
+        <v>-10.07831351078642</v>
       </c>
       <c r="E7">
-        <v>-4.585395650708367</v>
+        <v>-4.585423696468331</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-342.7624357805012</v>
+        <v>-345.1062734525834</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5321,7 +5321,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-128.4071445466417</v>
+        <v>-129.7063022952653</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5537,7 +5537,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.515625261834213</v>
+        <v>-1.515657916966955</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5572,16 +5572,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9.613890307625532</v>
+        <v>-9.6177552657402</v>
       </c>
       <c r="E7">
-        <v>-4.403748574526298</v>
+        <v>-4.403843456155604</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-373.2018503668593</v>
+        <v>-376.4610563808083</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5597,7 +5597,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-148.0727982043696</v>
+        <v>-149.8700502201044</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5675,7 +5675,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.365982446864601</v>
+        <v>-1.366087171867199</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5710,16 +5710,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8.954933985220718</v>
+        <v>-8.966857026941302</v>
       </c>
       <c r="E7">
-        <v>-3.968951563876698</v>
+        <v>-3.969255849238337</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-412.13094420351</v>
+        <v>-416.6247112690436</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5735,7 +5735,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-174.4332676511293</v>
+        <v>-176.8836437802654</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5813,7 +5813,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.335828476183544</v>
+        <v>-1.33614605755991</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5848,16 +5848,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8.204329447023772</v>
+        <v>-8.239050156462502</v>
       </c>
       <c r="E7">
-        <v>-3.881337224932313</v>
+        <v>-3.88225997844447</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-469.0406562281206</v>
+        <v>-475.2225448228726</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5873,7 +5873,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-209.5613742383167</v>
+        <v>-212.8553091804281</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5951,7 +5951,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.202133249640091</v>
+        <v>-1.203040687851745</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5986,16 +5986,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8.473906694257144</v>
+        <v>-8.568923222441731</v>
       </c>
       <c r="E7">
-        <v>-3.492876978103766</v>
+        <v>-3.495513599326484</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-550.1232830821043</v>
+        <v>-558.6902682796108</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6011,7 +6011,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-255.3796240931961</v>
+        <v>-259.7471161172174</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6089,7 +6089,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.037409677536012</v>
+        <v>-1.039839710981955</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6124,16 +6124,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10.21601855503813</v>
+        <v>-10.45869736999095</v>
       </c>
       <c r="E7">
-        <v>-3.01426183878738</v>
+        <v>-3.021322460296597</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-663.1155442931084</v>
+        <v>-675.2207481505005</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6149,7 +6149,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-313.3733255882718</v>
+        <v>-319.0875845035419</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6227,7 +6227,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.9017258173138071</v>
+        <v>-0.9077742595612314</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6262,16 +6262,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-14.46694933972224</v>
+        <v>-15.03934522143553</v>
       </c>
       <c r="E7">
-        <v>-2.620023486414812</v>
+        <v>-2.637597631947966</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-818.4389274799928</v>
+        <v>-836.0396847562058</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6287,7 +6287,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-384.3110817650227</v>
+        <v>-391.6914689906346</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6365,7 +6365,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.13613134847768</v>
+        <v>-1.149944879414017</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6400,16 +6400,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-22.27080179262666</v>
+        <v>-23.49805718271006</v>
       </c>
       <c r="E7">
-        <v>-3.301104126674621</v>
+        <v>-3.341240246533463</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1031.663650447345</v>
+        <v>-1057.901100771415</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6425,7 +6425,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-468.0082253448969</v>
+        <v>-477.4223784634011</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6503,7 +6503,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.754040762815443</v>
+        <v>-1.78242068214739</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6538,16 +6538,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-32.93418250889126</v>
+        <v>-35.27420904564192</v>
       </c>
       <c r="E7">
-        <v>-5.096480445015473</v>
+        <v>-5.178940161444311</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1295.68665350565</v>
+        <v>-1334.827263650362</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6563,7 +6563,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-563.1558557680886</v>
+        <v>-575.0210404312087</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6641,7 +6641,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-2.436983711048677</v>
+        <v>-2.487942531525661</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6676,16 +6676,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-44.66331377758442</v>
+        <v>-48.52979433256861</v>
       </c>
       <c r="E7">
-        <v>-7.080815960197635</v>
+        <v>-7.22888015435304</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1585.123691905294</v>
+        <v>-1641.230213946438</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6701,7 +6701,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-667.2270745405418</v>
+        <v>-682.0110210122643</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6779,7 +6779,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-3.430260990319106</v>
+        <v>-3.507229547278485</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6814,16 +6814,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-62.09465959905222</v>
+        <v>-67.52612125785711</v>
       </c>
       <c r="E7">
-        <v>-9.966848222158559</v>
+        <v>-10.19048541106567</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1933.113610758908</v>
+        <v>-2007.48400309587</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6839,7 +6839,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-776.4718408986138</v>
+        <v>-794.6935958601254</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6961,7 +6961,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2.389398766937425E-05</v>
+        <v>-2.389398767118897E-05</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6977,7 +6977,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1.329469434209105E-05</v>
+        <v>-1.329469434310077E-05</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7055,7 +7055,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4.734503135388751</v>
+        <v>-4.828532238231806</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7090,16 +7090,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-85.26983299266399</v>
+        <v>-91.83100185038765</v>
       </c>
       <c r="E7">
-        <v>-13.75640929099209</v>
+        <v>-14.02961701458728</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2331.226004071979</v>
+        <v>-2421.485591174176</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7115,7 +7115,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-886.0214726604466</v>
+        <v>-908.2531139795103</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-5.398905945735628</v>
+        <v>-5.491634195436952</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7228,16 +7228,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-97.17517414255636</v>
+        <v>-104.4175965699462</v>
       </c>
       <c r="E7">
-        <v>-15.68687521990874</v>
+        <v>-15.95630322940651</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2621.574307659701</v>
+        <v>-2725.126064232626</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7253,7 +7253,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-990.1318884388486</v>
+        <v>-1017.002284214998</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-5.444759491827767</v>
+        <v>-5.529669790781511</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7366,16 +7366,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-97.74821657609399</v>
+        <v>-105.5935954803608</v>
       </c>
       <c r="E7">
-        <v>-15.82010570459719</v>
+        <v>-16.06681814559176</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2793.044836475634</v>
+        <v>-2910.403227600754</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1082.586926251701</v>
+        <v>-1114.78902899695</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7469,7 +7469,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-5.400181343710913</v>
+        <v>-5.496119429619379</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7504,16 +7504,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-96.49452834810977</v>
+        <v>-105.0335062152498</v>
       </c>
       <c r="E7">
-        <v>-15.69058097235102</v>
+        <v>-15.96933537141065</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2916.982047476501</v>
+        <v>-3050.650109230556</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7529,7 +7529,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1157.252659627085</v>
+        <v>-1195.556057559704</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7607,7 +7607,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-5.26164355875405</v>
+        <v>-5.39568586091321</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7642,16 +7642,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-93.65787188172234</v>
+        <v>-102.9166194388023</v>
       </c>
       <c r="E7">
-        <v>-15.28805035453624</v>
+        <v>-15.67751905232322</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2985.376161999332</v>
+        <v>-3137.757329581169</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7667,7 +7667,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1208.727174030207</v>
+        <v>-1253.997707341575</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7745,7 +7745,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-5.049676292881895</v>
+        <v>-5.238460528845266</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7780,16 +7780,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-89.55554122251888</v>
+        <v>-99.46907179289757</v>
       </c>
       <c r="E7">
-        <v>-14.67216556530999</v>
+        <v>-15.22069054107519</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2993.812956951093</v>
+        <v>-3166.614558700409</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7805,7 +7805,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1232.985477033704</v>
+        <v>-1286.213592462384</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7883,7 +7883,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4.888295266242713</v>
+        <v>-5.14121320173527</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7918,16 +7918,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-86.28236652040813</v>
+        <v>-96.70216342359235</v>
       </c>
       <c r="E7">
-        <v>-14.20326241100533</v>
+        <v>-14.9381320558604</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2956.799886858155</v>
+        <v>-3151.235195689514</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7943,7 +7943,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1227.896726760469</v>
+        <v>-1290.235813009644</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8021,7 +8021,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4.698736696441415</v>
+        <v>-5.024575469181542</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8056,16 +8056,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-82.27286268261912</v>
+        <v>-92.96524927014906</v>
       </c>
       <c r="E7">
-        <v>-13.65248755750265</v>
+        <v>-14.59923347624195</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2861.0496681251</v>
+        <v>-3078.074455779912</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1193.505012088393</v>
+        <v>-1266.320166698331</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8159,7 +8159,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4.222601913301528</v>
+        <v>-4.639942915359947</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8194,16 +8194,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-72.69806569378794</v>
+        <v>-83.37139374861542</v>
       </c>
       <c r="E7">
-        <v>-12.26904672596283</v>
+        <v>-13.48165837158951</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2668.922237927981</v>
+        <v>-2909.790690120483</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8219,7 +8219,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1132.016379955483</v>
+        <v>-1216.94286667136</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-3.180603289040707</v>
+        <v>-3.741562818727711</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8332,16 +8332,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-52.65355715342795</v>
+        <v>-63.16903313279497</v>
       </c>
       <c r="E7">
-        <v>-9.241451401579223</v>
+        <v>-10.87135609598666</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2345.082491598331</v>
+        <v>-2613.583658314266</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8357,7 +8357,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1047.508147788979</v>
+        <v>-1146.517217592628</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8479,7 +8479,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.0001151951921709256</v>
+        <v>-0.0001151951923220777</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8495,7 +8495,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-6.409498869683661E-05</v>
+        <v>-6.409498878093814E-05</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8573,7 +8573,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.720606661518853</v>
+        <v>-2.506708292080261</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8608,16 +8608,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-25.64171655534708</v>
+        <v>-36.02501486501039</v>
       </c>
       <c r="E7">
-        <v>-4.999335471496597</v>
+        <v>-7.283405302074723</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1928.565425340567</v>
+        <v>-2231.132175674897</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8633,7 +8633,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-945.4426921233484</v>
+        <v>-1060.91052740355</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.9089417691695423</v>
+        <v>-1.971654457320321</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8746,16 +8746,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-11.60127057145252</v>
+        <v>-21.84586075414153</v>
       </c>
       <c r="E7">
-        <v>-2.640989907665991</v>
+        <v>-5.728771302858199</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1602.427187812469</v>
+        <v>-1945.374692720778</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8771,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-832.0987471919516</v>
+        <v>-966.8721882095404</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8849,7 +8849,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.7109382621285919</v>
+        <v>-2.020271123367637</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8884,16 +8884,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9.921459362842167</v>
+        <v>-19.97554579795768</v>
       </c>
       <c r="E7">
-        <v>-2.065677735297244</v>
+        <v>-5.870030213748207</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1373.110543871956</v>
+        <v>-1761.392989593977</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8909,7 +8909,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-714.0157459975911</v>
+        <v>-871.4663936468454</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8987,7 +8987,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.4950362217540616</v>
+        <v>-1.936520233931483</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9022,16 +9022,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8.562745045593269</v>
+        <v>-18.31964426411282</v>
       </c>
       <c r="E7">
-        <v>-1.438360200759701</v>
+        <v>-5.626686513126969</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1148.517792728537</v>
+        <v>-1585.642970318641</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9047,7 +9047,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-597.4945650458826</v>
+        <v>-781.5511202973488</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9125,7 +9125,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.2772121740078617</v>
+        <v>-1.693473871098728</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9160,16 +9160,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-5.989395115446635</v>
+        <v>-15.36007054786156</v>
       </c>
       <c r="E7">
-        <v>-0.8054581477819095</v>
+        <v>-4.920499369892601</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-927.8840662344734</v>
+        <v>-1417.450029870774</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-488.1490158837781</v>
+        <v>-703.2966637892584</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.09995757096880088</v>
+        <v>-1.397768311325592</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9298,16 +9298,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-2.922133629694295</v>
+        <v>-12.07532294593196</v>
       </c>
       <c r="E7">
-        <v>-0.2904332764513647</v>
+        <v>-4.06130747719842</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-725.628690782782</v>
+        <v>-1275.593480400504</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9323,7 +9323,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-390.4941562494745</v>
+        <v>-641.7297951556185</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9401,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.03450164839778747</v>
+        <v>-1.206090362558832</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9436,16 +9436,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-2.266541017983549</v>
+        <v>-11.91325143863326</v>
       </c>
       <c r="E7">
-        <v>-0.1002468016181586</v>
+        <v>-3.504374629148495</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-570.2568474675438</v>
+        <v>-1195.359583276495</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9461,7 +9461,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-307.5968276835134</v>
+        <v>-600.3303062989054</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9539,7 +9539,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.08088931558939637</v>
+        <v>-1.158728859806773</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9574,16 +9574,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-4.054983476406568</v>
+        <v>-15.60421683267752</v>
       </c>
       <c r="E7">
-        <v>-0.2350292101822837</v>
+        <v>-3.366762677511193</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-464.5387709085343</v>
+        <v>-1186.057631443275</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9599,7 +9599,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-240.8659730845753</v>
+        <v>-580.7604471997312</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9677,7 +9677,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.2053833889080766</v>
+        <v>-1.278289022148135</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9712,16 +9712,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-6.642209059520938</v>
+        <v>-22.27312392546739</v>
       </c>
       <c r="E7">
-        <v>-0.5967549030165586</v>
+        <v>-3.714152568495009</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-395.2040029777586</v>
+        <v>-1241.473823531931</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-190.073185494373</v>
+        <v>-582.8222871674784</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9815,7 +9815,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.4218517380718815</v>
+        <v>-1.660990807744399</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9850,16 +9850,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9.529227472590435</v>
+        <v>-32.14072295548948</v>
       </c>
       <c r="E7">
-        <v>-1.22571788487298</v>
+        <v>-4.82611769947246</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-356.0994025695307</v>
+        <v>-1362.265179026691</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9875,7 +9875,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-153.6402359309695</v>
+        <v>-604.6857774525209</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9997,7 +9997,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.0004143679286730751</v>
+        <v>-0.0004143679331030802</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10013,7 +10013,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.0002305556959253918</v>
+        <v>-0.0002305556983902614</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10091,7 +10091,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.66085484388203</v>
+        <v>-2.307193377155188</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10126,16 +10126,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-12.22637154908246</v>
+        <v>-45.01145497596099</v>
       </c>
       <c r="E7">
-        <v>-1.920157079720557</v>
+        <v>-6.703701634998915</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-337.5834695591964</v>
+        <v>-1541.585907965409</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10151,7 +10151,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-129.1325484412253</v>
+        <v>-643.3335225721742</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10229,7 +10229,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.8362643655045557</v>
+        <v>-3.133178270818251</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10264,16 +10264,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-14.65843445573505</v>
+        <v>-60.47567999028486</v>
       </c>
       <c r="E7">
-        <v>-2.429820946017366</v>
+        <v>-9.103654901578107</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-332.1043489275477</v>
+        <v>-1767.797215410358</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10289,7 +10289,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-113.8151155606263</v>
+        <v>-695.0861209355393</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10367,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.9352554112996844</v>
+        <v>-4.055677736632489</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10402,16 +10402,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-16.46780080100006</v>
+        <v>-77.65207980656754</v>
       </c>
       <c r="E7">
-        <v>-2.717445920203662</v>
+        <v>-11.78403758579408</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-332.1067878604288</v>
+        <v>-2025.447220151083</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10427,7 +10427,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-105.1134649396431</v>
+        <v>-756.0575155451969</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10505,7 +10505,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.8545334330086819</v>
+        <v>-4.888360912854348</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10540,16 +10540,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-15.13781048811906</v>
+        <v>-93.17134106296919</v>
       </c>
       <c r="E7">
-        <v>-2.482902919513807</v>
+        <v>-14.20345315153974</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-312.8166251910512</v>
+        <v>-2278.536726432505</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10565,7 +10565,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-100.8848048453383</v>
+        <v>-822.4508252556711</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10643,7 +10643,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.5190732410106146</v>
+        <v>-5.372555500760642</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10678,16 +10678,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9.193886797260481</v>
+        <v>-102.3201914282379</v>
       </c>
       <c r="E7">
-        <v>-1.508201336264926</v>
+        <v>-15.61031227429229</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-258.6948961166918</v>
+        <v>-2479.888367996226</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10703,7 +10703,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-99.49975616143936</v>
+        <v>-890.6980123396843</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10781,7 +10781,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.1711902457926568</v>
+        <v>-5.493971301362705</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10816,16 +10816,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-2.97488568632633</v>
+        <v>-104.7182331958073</v>
       </c>
       <c r="E7">
-        <v>-0.4974044837243428</v>
+        <v>-15.96309384391276</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-205.291967162303</v>
+        <v>-2620.461946044719</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-99.80237035839779</v>
+        <v>-957.5109073050584</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.02495365264519222</v>
+        <v>-5.446510873659074</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10954,16 +10954,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.3967344865944075</v>
+        <v>-103.7261353006565</v>
       </c>
       <c r="E7">
-        <v>-0.07250447391758365</v>
+        <v>-15.82519445934237</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-185.0755027802566</v>
+        <v>-2724.208593830306</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10979,7 +10979,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-101.0245743808131</v>
+        <v>-1019.915988013286</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.005613235174541652</v>
+        <v>-5.346327613584568</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11092,16 +11092,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.0801827585571509</v>
+        <v>-101.3944555068493</v>
       </c>
       <c r="E7">
-        <v>-0.01630962284730814</v>
+        <v>-15.53410542839643</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-185.2968115950827</v>
+        <v>-2804.268764458778</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11117,7 +11117,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-102.6975604515683</v>
+        <v>-1075.308063218967</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11195,7 +11195,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.01349340119309135</v>
+        <v>-5.227959056382784</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11230,16 +11230,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.1920820689178655</v>
+        <v>-98.30070893162832</v>
       </c>
       <c r="E7">
-        <v>-0.03920596189962904</v>
+        <v>-15.19017782427663</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-189.6673511309118</v>
+        <v>-2861.810446738483</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11255,7 +11255,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-104.5674198342622</v>
+        <v>-1121.519536025577</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11333,7 +11333,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.0359174414309914</v>
+        <v>-5.112193713036134</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11368,16 +11368,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.5134805518878173</v>
+        <v>-94.68367880310984</v>
       </c>
       <c r="E7">
-        <v>-0.1043604811066165</v>
+        <v>-14.85381402870001</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-196.0564178627927</v>
+        <v>-2896.097748423058</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-106.5111775757197</v>
+        <v>-1156.888323893973</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11515,7 +11515,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.001260304952250225</v>
+        <v>-0.001260305011454442</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11531,7 +11531,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.0007012378708177605</v>
+        <v>-0.000701237903759184</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11609,7 +11609,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.07767082386914216</v>
+        <v>-4.965233968960055</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11644,16 +11644,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-1.120295851569177</v>
+        <v>-89.73625409042583</v>
       </c>
       <c r="E7">
-        <v>-0.2256776714595512</v>
+        <v>-14.42681285645473</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-205.0086407505494</v>
+        <v>-2898.428405547194</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11669,7 +11669,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-108.4581890689611</v>
+        <v>-1180.315046450616</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11747,7 +11747,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.1107134100394539</v>
+        <v>-4.651370301601619</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11782,16 +11782,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-1.64431844330755</v>
+        <v>-80.89017621658239</v>
       </c>
       <c r="E7">
-        <v>-0.3216850721082278</v>
+        <v>-13.51486139158366</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-213.0122744682258</v>
+        <v>-2845.8373314833</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11807,7 +11807,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-110.3319742357109</v>
+        <v>-1191.310423683185</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11885,7 +11885,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.08399901886486898</v>
+        <v>-4.002748162163132</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11920,16 +11920,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-1.439726693457333</v>
+        <v>-65.30980111419822</v>
       </c>
       <c r="E7">
-        <v>-0.2440646569456804</v>
+        <v>-11.63024723669576</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-213.9138589690481</v>
+        <v>-2713.791583648412</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11945,7 +11945,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-112.0268454614851</v>
+        <v>-1190.034962943232</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12023,7 +12023,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.09492597390500063</v>
+        <v>-3.257455288766877</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12058,16 +12058,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-2.047205448106368</v>
+        <v>-47.90439836512238</v>
       </c>
       <c r="E7">
-        <v>-0.2758136412715673</v>
+        <v>-9.464749925802842</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-221.1343885800091</v>
+        <v>-2545.496535545771</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12083,7 +12083,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-113.4230178807254</v>
+        <v>-1177.325797168948</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12161,7 +12161,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.2146493624030902</v>
+        <v>-2.796720372063298</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12196,16 +12196,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-4.693765235885331</v>
+        <v>-36.45591672806083</v>
       </c>
       <c r="E7">
-        <v>-0.6236777965561413</v>
+        <v>-8.126054415929627</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-245.2164162027493</v>
+        <v>-2409.867643663328</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12221,7 +12221,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-114.4302771089078</v>
+        <v>-1154.696694861588</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12299,7 +12299,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.381416901424457</v>
+        <v>-2.600609403448054</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12334,16 +12334,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8.29839137522084</v>
+        <v>-31.38518062440317</v>
       </c>
       <c r="E7">
-        <v>-1.108231815769193</v>
+        <v>-7.556241138046415</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-276.7354937468376</v>
+        <v>-2313.356817654142</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12359,7 +12359,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-115.0396470178125</v>
+        <v>-1124.292212197551</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12437,7 +12437,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.4718275163044625</v>
+        <v>-2.44725937304999</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12472,16 +12472,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10.03625553836585</v>
+        <v>-28.88651994622496</v>
       </c>
       <c r="E7">
-        <v>-1.370925785331322</v>
+        <v>-7.110672569895359</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-292.2188526796154</v>
+        <v>-2227.526258548822</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12497,7 +12497,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-115.3584634542318</v>
+        <v>-1088.778622397694</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12575,7 +12575,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.5020555074692774</v>
+        <v>-2.244085113102574</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12610,16 +12610,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10.0400519198803</v>
+        <v>-26.89819818639564</v>
       </c>
       <c r="E7">
-        <v>-1.458755195644627</v>
+        <v>-6.520336435921804</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-293.4288080007814</v>
+        <v>-2140.448462852747</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12635,7 +12635,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-115.6089058177007</v>
+        <v>-1051.163954799889</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12713,7 +12713,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.5533656165269019</v>
+        <v>-2.044941995106544</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12748,16 +12748,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10.43757086777572</v>
+        <v>-25.9682362853191</v>
       </c>
       <c r="E7">
-        <v>-1.607840081804316</v>
+        <v>-5.941713049201248</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-298.4339676795672</v>
+        <v>-2063.025542263715</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12773,7 +12773,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-116.0833959410974</v>
+        <v>-1014.556527745027</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12851,7 +12851,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.6207647696434778</v>
+        <v>-1.934431281101273</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12886,16 +12886,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-11.52740316901959</v>
+        <v>-27.43271233807499</v>
       </c>
       <c r="E7">
-        <v>-1.803672740401074</v>
+        <v>-5.62061692371068</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-309.8137319964475</v>
+        <v>-2012.360928705728</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12911,7 +12911,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-117.0683134970039</v>
+        <v>-981.8912300362794</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13033,7 +13033,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.003382133340547807</v>
+        <v>-0.003382133827415849</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13049,7 +13049,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.001881830152822812</v>
+        <v>-0.001881830423717812</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13127,7 +13127,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.6818948430824764</v>
+        <v>-1.976161725042691</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13162,16 +13162,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-12.50205548132156</v>
+        <v>-32.02695500813046</v>
       </c>
       <c r="E7">
-        <v>-1.981290176944649</v>
+        <v>-5.741867464757331</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-321.4727887838546</v>
+        <v>-1999.869309621982</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13187,7 +13187,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-118.7622058814117</v>
+        <v>-955.6672937825612</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13265,7 +13265,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.7363514706049417</v>
+        <v>-2.227975904691727</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13300,16 +13300,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-12.97967358742519</v>
+        <v>-39.98861106507131</v>
       </c>
       <c r="E7">
-        <v>-2.139517478814336</v>
+        <v>-6.473530074638168</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-330.7016940419379</v>
+        <v>-2032.030147339529</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13325,7 +13325,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-121.2181785171347</v>
+        <v>-937.7426125649166</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13403,7 +13403,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.7707371526807812</v>
+        <v>-2.708452252039114</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13438,16 +13438,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-13.0079180883248</v>
+        <v>-50.99995108776661</v>
       </c>
       <c r="E7">
-        <v>-2.239427332680415</v>
+        <v>-7.869585605649836</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-337.3336807101653</v>
+        <v>-2108.941798694731</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13463,7 +13463,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-124.32986142532</v>
+        <v>-929.2156054423174</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13541,7 +13541,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.7503980803837853</v>
+        <v>-3.37502565731482</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13576,16 +13576,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-12.50675570642535</v>
+        <v>-64.29561723211472</v>
       </c>
       <c r="E7">
-        <v>-2.180330824532558</v>
+        <v>-9.806358340453407</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-339.520417484962</v>
+        <v>-2224.539078387362</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13601,7 +13601,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-127.8617496806662</v>
+        <v>-930.4022618105432</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13679,7 +13679,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.663727066532819</v>
+        <v>-4.138644142281841</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13714,16 +13714,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-11.33799118206346</v>
+        <v>-78.75546926843133</v>
       </c>
       <c r="E7">
-        <v>-1.928502510957845</v>
+        <v>-12.02510191733586</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-335.4196113797719</v>
+        <v>-2367.732105878761</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13739,7 +13739,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-131.5080269996449</v>
+        <v>-940.8941628927904</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13817,7 +13817,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.5280222503119196</v>
+        <v>-4.880325624701977</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13852,16 +13852,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9.33227910528584</v>
+        <v>-92.63041482643825</v>
       </c>
       <c r="E7">
-        <v>-1.534203269557032</v>
+        <v>-14.18010609495658</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-323.6507351071144</v>
+        <v>-2521.003568652191</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13877,7 +13877,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-134.9571758463439</v>
+        <v>-959.6715210598963</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13955,7 +13955,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.3813372429419519</v>
+        <v>-5.47620542139021</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13990,16 +13990,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-6.861552467854414</v>
+        <v>-103.7730721676513</v>
       </c>
       <c r="E7">
-        <v>-1.108000362825241</v>
+        <v>-15.91147391478239</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-307.3808341417245</v>
+        <v>-2662.958864132976</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14015,7 +14015,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-137.943788856762</v>
+        <v>-985.2451408316176</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -14093,7 +14093,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.2832579427079565</v>
+        <v>-5.825365334964128</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14128,16 +14128,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-5.100109678121219</v>
+        <v>-110.3013975525297</v>
       </c>
       <c r="E7">
-        <v>-0.823024525147999</v>
+        <v>-16.92598093733099</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-296.308780953074</v>
+        <v>-2774.129838889866</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14153,7 +14153,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-140.2788024457507</v>
+        <v>-1015.807850130863</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -14231,7 +14231,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.2948175086406949</v>
+        <v>-5.928337296615164</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14266,16 +14266,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-5.283478580287466</v>
+        <v>-112.1287346298183</v>
       </c>
       <c r="E7">
-        <v>-0.8566116019012813</v>
+        <v>-17.22517272355666</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-300.7701625281543</v>
+        <v>-2850.343086679422</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14291,7 +14291,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-141.8585486662355</v>
+        <v>-1049.383314558795</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -14369,7 +14369,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.3855953984085548</v>
+        <v>-5.877627128471498</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14404,16 +14404,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-6.897366080168984</v>
+        <v>-110.8267012631943</v>
       </c>
       <c r="E7">
-        <v>-1.12037271273149</v>
+        <v>-17.0778310050593</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-316.21896953599</v>
+        <v>-2901.736381152092</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14429,7 +14429,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-142.6581184080636</v>
+        <v>-1083.964897545383</v>
       </c>
       <c r="G8">
         <v>0</v>

--- a/Recycling/Met_rec_comp/metrec_Avg_b3.xlsx
+++ b/Recycling/Met_rec_comp/metrec_Avg_b3.xlsx
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.07483370459695037</v>
+        <v>-0.07483370459695035</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2683,7 +2683,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-6.625613884317977</v>
+        <v>-6.625613884317976</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3373,7 +3373,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-79.83986285691213</v>
+        <v>-79.83986285691212</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-90.87008568506448</v>
+        <v>-90.87008568506447</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4063,7 +4063,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-140.22159286433</v>
+        <v>-140.2215928643301</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5167,7 +5167,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-311.5331415056567</v>
+        <v>-311.5331415056568</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5581,7 +5581,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-376.4610563808083</v>
+        <v>-376.4610563808082</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5995,7 +5995,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-558.6902682796108</v>
+        <v>-558.6902682796107</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6271,7 +6271,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-836.0396847562058</v>
+        <v>-836.0396847562059</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7789,7 +7789,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-3166.614558700409</v>
+        <v>-3166.61455870041</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7927,7 +7927,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-3151.235195689514</v>
+        <v>-3151.235195689513</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10273,7 +10273,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1767.797215410358</v>
+        <v>-1767.797215410359</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11653,7 +11653,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2898.428405547194</v>
+        <v>-2898.428405547193</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11791,7 +11791,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2845.8373314833</v>
+        <v>-2845.837331483299</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12343,7 +12343,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2313.356817654142</v>
+        <v>-2313.356817654141</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14137,7 +14137,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2774.129838889866</v>
+        <v>-2774.129838889865</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14413,7 +14413,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2901.736381152092</v>
+        <v>-2901.736381152093</v>
       </c>
     </row>
     <row r="8" spans="1:7">

--- a/Recycling/Met_rec_comp/metrec_Avg_b3.xlsx
+++ b/Recycling/Met_rec_comp/metrec_Avg_b3.xlsx
@@ -3373,7 +3373,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-79.83986285691212</v>
+        <v>-79.83986285691213</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-90.87008568506447</v>
+        <v>-90.87008568506448</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4063,7 +4063,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-140.2215928643301</v>
+        <v>-140.22159286433</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4891,7 +4891,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-256.3649260713185</v>
+        <v>-256.3649260713184</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5167,7 +5167,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-311.5331415056568</v>
+        <v>-311.5331415056567</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5581,7 +5581,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-376.4610563808082</v>
+        <v>-376.4610563808083</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5995,7 +5995,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-558.6902682796107</v>
+        <v>-558.6902682796108</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6271,7 +6271,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-836.0396847562059</v>
+        <v>-836.0396847562058</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7237,7 +7237,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2725.126064232626</v>
+        <v>-2725.126064232627</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7927,7 +7927,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-3151.235195689513</v>
+        <v>-3151.235195689514</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11377,7 +11377,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2896.097748423058</v>
+        <v>-2896.097748423059</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11791,7 +11791,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2845.837331483299</v>
+        <v>-2845.8373314833</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12343,7 +12343,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2313.356817654141</v>
+        <v>-2313.356817654142</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14137,7 +14137,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2774.129838889865</v>
+        <v>-2774.129838889866</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14413,7 +14413,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2901.736381152093</v>
+        <v>-2901.736381152092</v>
       </c>
     </row>
     <row r="8" spans="1:7">
